--- a/trunk/WIP/Documents/Requirements/Mockup/Mobile/TaxiNet_ScreenDesign_DriverM.xlsx
+++ b/trunk/WIP/Documents/Requirements/Mockup/Mobile/TaxiNet_ScreenDesign_DriverM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\FU\Capstones\201501Spring\TaxiNet\WIP\Documents\Requirements\Mockup\Mobile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AkiyamaYumi\Desktop\tns-project\WIP\Documents\Requirements\Mockup\Mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="844" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="844" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="01.Start" sheetId="4" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <sheet name="05.Profile" sheetId="8" r:id="rId9"/>
     <sheet name="05.Profile Def" sheetId="9" r:id="rId10"/>
     <sheet name="06.CompanyInfo" sheetId="10" r:id="rId11"/>
-    <sheet name="06.CompanyInfo Def" sheetId="11" r:id="rId12"/>
-    <sheet name="Note" sheetId="2" r:id="rId13"/>
+    <sheet name="Note" sheetId="2" r:id="rId12"/>
+    <sheet name="06.CompanyInfo Def" sheetId="11" r:id="rId13"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId14"/>
@@ -2109,6 +2109,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2148,9 +2162,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2187,18 +2198,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2206,13 +2213,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3752,196 +3752,196 @@
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
       <c r="K4" s="43"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
       <c r="K5" s="43"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
       <c r="K6" s="43"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="42"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
       <c r="K7" s="43"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="42"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
       <c r="K8" s="43"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="42"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
       <c r="K9" s="43"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="42"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
       <c r="K10" s="43"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="42"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
       <c r="K11" s="44"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="42"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
       <c r="K12" s="45"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
       <c r="K13" s="44"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
       <c r="K14" s="45"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
       <c r="K15" s="45"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="42"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
       <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B17" s="42"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
       <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
       <c r="K18" s="45"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B19" s="42"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
       <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
@@ -4652,7 +4652,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4670,15 +4670,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -4983,9 +4983,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="15">
-        <v>12</v>
-      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -4994,9 +4992,7 @@
       <c r="H17" s="17"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="15">
-        <v>13</v>
-      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -5153,17 +5149,17 @@
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="117"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
     </row>
     <row r="4" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
@@ -5181,27 +5177,27 @@
     </row>
     <row r="5" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="132" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="119" t="s">
+      <c r="D5" s="132"/>
+      <c r="E5" s="128" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
       <c r="M5" s="43"/>
     </row>
     <row r="6" spans="2:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="77"/>
       <c r="G6" s="77"/>
       <c r="H6" s="77"/>
@@ -5213,38 +5209,38 @@
     </row>
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="42"/>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="94" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="124"/>
-      <c r="E7" s="123" t="s">
+      <c r="D7" s="94"/>
+      <c r="E7" s="132" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
       <c r="M7" s="43"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="42"/>
-      <c r="C8" s="125" t="s">
+      <c r="C8" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="126" t="s">
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="133" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
       <c r="M8" s="44"/>
     </row>
     <row r="9" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5353,16 +5349,16 @@
     </row>
     <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="42"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
       <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5381,16 +5377,16 @@
     </row>
     <row r="18" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="131"/>
+      <c r="K18" s="131"/>
+      <c r="L18" s="131"/>
       <c r="M18" s="45"/>
     </row>
     <row r="19" spans="1:21" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5438,43 +5434,43 @@
     <row r="22" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="42"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="122"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
       <c r="M22" s="45"/>
     </row>
     <row r="23" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="42"/>
       <c r="C23" s="46"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="120"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="129"/>
       <c r="M23" s="43"/>
     </row>
     <row r="24" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="42"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
       <c r="M24" s="45"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -5586,51 +5582,51 @@
       <c r="B34" s="58">
         <v>1</v>
       </c>
-      <c r="C34" s="113" t="s">
+      <c r="C34" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="114"/>
-      <c r="N34" s="114"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="114"/>
-      <c r="Q34" s="114"/>
-      <c r="R34" s="114"/>
-      <c r="S34" s="114"/>
-      <c r="T34" s="114"/>
-      <c r="U34" s="114"/>
-      <c r="V34" s="114"/>
-      <c r="W34" s="114"/>
-      <c r="X34" s="114"/>
-      <c r="Y34" s="114"/>
-      <c r="Z34" s="114"/>
-      <c r="AA34" s="114"/>
-      <c r="AB34" s="114"/>
-      <c r="AC34" s="114"/>
-      <c r="AD34" s="114"/>
-      <c r="AE34" s="114"/>
-      <c r="AF34" s="114"/>
-      <c r="AG34" s="114"/>
-      <c r="AH34" s="114"/>
-      <c r="AI34" s="114"/>
-      <c r="AJ34" s="114"/>
-      <c r="AK34" s="114"/>
-      <c r="AL34" s="114"/>
-      <c r="AM34" s="114"/>
-      <c r="AN34" s="114"/>
-      <c r="AO34" s="114"/>
-      <c r="AP34" s="114"/>
-      <c r="AQ34" s="114"/>
-      <c r="AR34" s="114"/>
-      <c r="AS34" s="115"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="123"/>
+      <c r="O34" s="123"/>
+      <c r="P34" s="123"/>
+      <c r="Q34" s="123"/>
+      <c r="R34" s="123"/>
+      <c r="S34" s="123"/>
+      <c r="T34" s="123"/>
+      <c r="U34" s="123"/>
+      <c r="V34" s="123"/>
+      <c r="W34" s="123"/>
+      <c r="X34" s="123"/>
+      <c r="Y34" s="123"/>
+      <c r="Z34" s="123"/>
+      <c r="AA34" s="123"/>
+      <c r="AB34" s="123"/>
+      <c r="AC34" s="123"/>
+      <c r="AD34" s="123"/>
+      <c r="AE34" s="123"/>
+      <c r="AF34" s="123"/>
+      <c r="AG34" s="123"/>
+      <c r="AH34" s="123"/>
+      <c r="AI34" s="123"/>
+      <c r="AJ34" s="123"/>
+      <c r="AK34" s="123"/>
+      <c r="AL34" s="123"/>
+      <c r="AM34" s="123"/>
+      <c r="AN34" s="123"/>
+      <c r="AO34" s="123"/>
+      <c r="AP34" s="123"/>
+      <c r="AQ34" s="123"/>
+      <c r="AR34" s="123"/>
+      <c r="AS34" s="124"/>
     </row>
     <row r="35" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50"/>
@@ -6186,11 +6182,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="C34:AS34"/>
     <mergeCell ref="E7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="E3:I3"/>
@@ -6198,6 +6189,11 @@
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="E5:L5"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="C34:AS34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6207,10 +6203,33 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6228,15 +6247,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -6541,9 +6560,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="15">
-        <v>12</v>
-      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -6552,9 +6569,7 @@
       <c r="H17" s="17"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="15">
-        <v>13</v>
-      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -6650,29 +6665,6 @@
   <hyperlinks>
     <hyperlink ref="D4" location="'06.CompanyInfo'!A1" display="COMPANY INFO"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6700,15 +6692,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -7224,40 +7216,40 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
       <c r="K4" s="43"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
       <c r="K5" s="43"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
       <c r="K6" s="43"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -7303,11 +7295,11 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="101"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="111"/>
       <c r="K10" s="44"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7329,11 +7321,11 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="104"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="114"/>
       <c r="K12" s="44"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -8145,15 +8137,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -8613,7 +8605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AS76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -8633,10 +8625,10 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="115"/>
       <c r="F4" s="37" t="s">
         <v>18</v>
       </c>
@@ -8644,20 +8636,20 @@
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="105"/>
+      <c r="L4" s="115"/>
       <c r="M4" s="37" t="s">
         <v>18</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="105"/>
+      <c r="R4" s="115"/>
       <c r="S4" s="37" t="s">
         <v>18</v>
       </c>
@@ -8888,7 +8880,7 @@
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C20" s="106" t="s">
+      <c r="C20" s="116" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -8896,7 +8888,7 @@
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="34"/>
-      <c r="J20" s="106" t="s">
+      <c r="J20" s="116" t="s">
         <v>44</v>
       </c>
       <c r="K20" s="33" t="s">
@@ -8904,7 +8896,7 @@
       </c>
       <c r="L20" s="33"/>
       <c r="M20" s="34"/>
-      <c r="P20" s="106" t="s">
+      <c r="P20" s="116" t="s">
         <v>44</v>
       </c>
       <c r="Q20" s="33" t="s">
@@ -8914,7 +8906,7 @@
       <c r="S20" s="34"/>
     </row>
     <row r="21" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="107"/>
+      <c r="C21" s="117"/>
       <c r="D21" s="35" t="s">
         <v>45</v>
       </c>
@@ -8922,7 +8914,7 @@
       <c r="F21" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="J21" s="107"/>
+      <c r="J21" s="117"/>
       <c r="K21" s="35" t="s">
         <v>236</v>
       </c>
@@ -8930,7 +8922,7 @@
       <c r="M21" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="P21" s="107"/>
+      <c r="P21" s="117"/>
       <c r="Q21" s="35" t="s">
         <v>238</v>
       </c>
@@ -9585,7 +9577,7 @@
       <c r="B42" s="58">
         <v>11</v>
       </c>
-      <c r="C42" s="133" t="s">
+      <c r="C42" s="101" t="s">
         <v>235</v>
       </c>
       <c r="D42" s="2"/>
@@ -9730,12 +9722,12 @@
       <c r="AS44" s="71"/>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B47" s="134" t="s">
+      <c r="B47" s="102" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="134" t="s">
+      <c r="B76" s="102" t="s">
         <v>240</v>
       </c>
     </row>
@@ -9777,15 +9769,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -10363,10 +10355,10 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="115"/>
       <c r="F4" s="37" t="s">
         <v>18</v>
       </c>
@@ -10387,14 +10379,14 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="130"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="98"/>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
@@ -10574,14 +10566,14 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
-      <c r="L18" s="131"/>
+      <c r="L18" s="99"/>
       <c r="M18" s="69"/>
       <c r="N18" s="69"/>
       <c r="O18" s="69"/>
       <c r="P18" s="69"/>
       <c r="Q18" s="69"/>
       <c r="R18" s="69"/>
-      <c r="S18" s="132"/>
+      <c r="S18" s="100"/>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
@@ -10590,7 +10582,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C20" s="106" t="s">
+      <c r="C20" s="116" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -10600,7 +10592,7 @@
       <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="107"/>
+      <c r="C21" s="117"/>
       <c r="D21" s="35" t="s">
         <v>45</v>
       </c>
@@ -11399,7 +11391,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B16" sqref="B16:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11417,15 +11409,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="106"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -11703,9 +11695,7 @@
       <c r="H15" s="17"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="15">
-        <v>11</v>
-      </c>
+      <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -11714,9 +11704,7 @@
       <c r="H16" s="17"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="15">
-        <v>12</v>
-      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -11725,9 +11713,7 @@
       <c r="H17" s="17"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="15">
-        <v>13</v>
-      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -11884,19 +11870,19 @@
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116" t="s">
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="117"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="126"/>
     </row>
     <row r="4" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
@@ -11914,27 +11900,27 @@
     </row>
     <row r="5" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
       <c r="F5" s="77"/>
-      <c r="G5" s="119" t="s">
+      <c r="G5" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
       <c r="M5" s="43"/>
     </row>
     <row r="6" spans="2:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
       <c r="F6" s="77"/>
       <c r="G6" s="77"/>
       <c r="H6" s="77"/>
@@ -11946,18 +11932,18 @@
     </row>
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="42"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="46"/>
-      <c r="G7" s="120" t="s">
+      <c r="G7" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
       <c r="M7" s="43"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -12129,17 +12115,17 @@
       <c r="C19" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="110"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="119"/>
       <c r="M19" s="45"/>
     </row>
     <row r="20" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12147,33 +12133,33 @@
       <c r="C20" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="111" t="s">
+      <c r="D20" s="120" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="112"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="121"/>
       <c r="M20" s="43"/>
     </row>
     <row r="21" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="42"/>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="110"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="119"/>
       <c r="M21" s="45"/>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.25">
@@ -12285,51 +12271,51 @@
       <c r="B31" s="58">
         <v>1</v>
       </c>
-      <c r="C31" s="113" t="s">
+      <c r="C31" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="114"/>
-      <c r="Q31" s="114"/>
-      <c r="R31" s="114"/>
-      <c r="S31" s="114"/>
-      <c r="T31" s="114"/>
-      <c r="U31" s="114"/>
-      <c r="V31" s="114"/>
-      <c r="W31" s="114"/>
-      <c r="X31" s="114"/>
-      <c r="Y31" s="114"/>
-      <c r="Z31" s="114"/>
-      <c r="AA31" s="114"/>
-      <c r="AB31" s="114"/>
-      <c r="AC31" s="114"/>
-      <c r="AD31" s="114"/>
-      <c r="AE31" s="114"/>
-      <c r="AF31" s="114"/>
-      <c r="AG31" s="114"/>
-      <c r="AH31" s="114"/>
-      <c r="AI31" s="114"/>
-      <c r="AJ31" s="114"/>
-      <c r="AK31" s="114"/>
-      <c r="AL31" s="114"/>
-      <c r="AM31" s="114"/>
-      <c r="AN31" s="114"/>
-      <c r="AO31" s="114"/>
-      <c r="AP31" s="114"/>
-      <c r="AQ31" s="114"/>
-      <c r="AR31" s="114"/>
-      <c r="AS31" s="115"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="123"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="123"/>
+      <c r="T31" s="123"/>
+      <c r="U31" s="123"/>
+      <c r="V31" s="123"/>
+      <c r="W31" s="123"/>
+      <c r="X31" s="123"/>
+      <c r="Y31" s="123"/>
+      <c r="Z31" s="123"/>
+      <c r="AA31" s="123"/>
+      <c r="AB31" s="123"/>
+      <c r="AC31" s="123"/>
+      <c r="AD31" s="123"/>
+      <c r="AE31" s="123"/>
+      <c r="AF31" s="123"/>
+      <c r="AG31" s="123"/>
+      <c r="AH31" s="123"/>
+      <c r="AI31" s="123"/>
+      <c r="AJ31" s="123"/>
+      <c r="AK31" s="123"/>
+      <c r="AL31" s="123"/>
+      <c r="AM31" s="123"/>
+      <c r="AN31" s="123"/>
+      <c r="AO31" s="123"/>
+      <c r="AP31" s="123"/>
+      <c r="AQ31" s="123"/>
+      <c r="AR31" s="123"/>
+      <c r="AS31" s="124"/>
     </row>
     <row r="32" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50"/>

--- a/trunk/WIP/Documents/Requirements/Mockup/Mobile/TaxiNet_ScreenDesign_DriverM.xlsx
+++ b/trunk/WIP/Documents/Requirements/Mockup/Mobile/TaxiNet_ScreenDesign_DriverM.xlsx
@@ -5,35 +5,36 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AkiyamaYumi\Desktop\tns-project\WIP\Documents\Requirements\Mockup\Mobile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\FU\Capstones\201501Spring\TaxiNet\WIP\Documents\Requirements\Mockup\Mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="844" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="844" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="01.Start" sheetId="4" r:id="rId1"/>
-    <sheet name="01.Start Def" sheetId="5" r:id="rId2"/>
-    <sheet name="02.Login" sheetId="6" r:id="rId3"/>
-    <sheet name="02.Login Def" sheetId="7" r:id="rId4"/>
-    <sheet name="03.Home" sheetId="1" r:id="rId5"/>
-    <sheet name="03.Home Def" sheetId="3" r:id="rId6"/>
-    <sheet name="04.Payment" sheetId="12" r:id="rId7"/>
-    <sheet name="04.Payment Def" sheetId="13" r:id="rId8"/>
-    <sheet name="05.Profile" sheetId="8" r:id="rId9"/>
-    <sheet name="05.Profile Def" sheetId="9" r:id="rId10"/>
-    <sheet name="06.CompanyInfo" sheetId="10" r:id="rId11"/>
-    <sheet name="Note" sheetId="2" r:id="rId12"/>
+    <sheet name="Function List" sheetId="14" r:id="rId1"/>
+    <sheet name="01.Start" sheetId="4" r:id="rId2"/>
+    <sheet name="01.Start Def" sheetId="5" r:id="rId3"/>
+    <sheet name="02.Login" sheetId="6" r:id="rId4"/>
+    <sheet name="02.Login Def" sheetId="7" r:id="rId5"/>
+    <sheet name="03.Home" sheetId="1" r:id="rId6"/>
+    <sheet name="03.Home Def" sheetId="3" r:id="rId7"/>
+    <sheet name="04.Payment" sheetId="12" r:id="rId8"/>
+    <sheet name="04.Payment Def" sheetId="13" r:id="rId9"/>
+    <sheet name="05.Profile" sheetId="8" r:id="rId10"/>
+    <sheet name="05.Profile Def" sheetId="9" r:id="rId11"/>
+    <sheet name="06.CompanyInfo" sheetId="10" r:id="rId12"/>
     <sheet name="06.CompanyInfo Def" sheetId="11" r:id="rId13"/>
+    <sheet name="Note" sheetId="2" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
-    <definedName name="KindOfTaxi" localSheetId="0">'[1]KH - Tạo hành trình'!$I$16:$K$16</definedName>
-    <definedName name="KindOfTaxi" localSheetId="2">'[1]KH - Tạo hành trình'!$I$16:$K$16</definedName>
-    <definedName name="KindOfTaxi" localSheetId="8">'[1]KH - Tạo hành trình'!$I$16:$K$16</definedName>
-    <definedName name="KindOfTaxi" localSheetId="10">'[1]KH - Tạo hành trình'!$I$16:$K$16</definedName>
+    <definedName name="KindOfTaxi" localSheetId="1">'[1]KH - Tạo hành trình'!$I$16:$K$16</definedName>
+    <definedName name="KindOfTaxi" localSheetId="3">'[1]KH - Tạo hành trình'!$I$16:$K$16</definedName>
+    <definedName name="KindOfTaxi" localSheetId="9">'[1]KH - Tạo hành trình'!$I$16:$K$16</definedName>
+    <definedName name="KindOfTaxi" localSheetId="11">'[1]KH - Tạo hành trình'!$I$16:$K$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="279">
   <si>
     <t>Địa Điểm</t>
   </si>
@@ -1139,30 +1140,112 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Khi lái xe lựa chọn nút "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ĐÃ TRẢ KHÁCH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>", màn hình hiển thị thông tin thanh toán (dạn popup) được hiện ra</t>
-    </r>
+    <t>Đã Đón Khách</t>
+  </si>
+  <si>
+    <t>Hủy Chuyến</t>
+  </si>
+  <si>
+    <t>Đã Trả Khách</t>
+  </si>
+  <si>
+    <t>Sơ đồ trạng thái của Trip</t>
+  </si>
+  <si>
+    <t>Sơ Đồ Trạng Thái của Driver</t>
+  </si>
+  <si>
+    <t>NOTE:</t>
+  </si>
+  <si>
+    <t>Function No = UC + &lt;two digits of Group function no&gt;  + &lt;two digits of Function No&gt;</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Function No</t>
+  </si>
+  <si>
+    <t>Function Name</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Doer</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Mobile Driver's Functions</t>
+  </si>
+  <si>
+    <t>UC0201</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Hieu, Nhat</t>
+  </si>
+  <si>
+    <t>Coded</t>
+  </si>
+  <si>
+    <t>UC0202</t>
+  </si>
+  <si>
+    <t>Display Home Current Position</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>UC0203</t>
+  </si>
+  <si>
+    <t>Receive Taxi Request</t>
+  </si>
+  <si>
+    <t>UC0204</t>
+  </si>
+  <si>
+    <t>Do Payment for a Trip</t>
+  </si>
+  <si>
+    <t>UC0205</t>
+  </si>
+  <si>
+    <t>View Driver's Profile</t>
+  </si>
+  <si>
+    <t>UC0206</t>
+  </si>
+  <si>
+    <t>View Company Info</t>
+  </si>
+  <si>
+    <t>UC0207</t>
+  </si>
+  <si>
+    <t>UC0208</t>
+  </si>
+  <si>
+    <t>Register a Promotion Trip</t>
+  </si>
+  <si>
+    <t>UC0209</t>
+  </si>
+  <si>
+    <t>View Trips History</t>
+  </si>
+  <si>
+    <t>UC0210</t>
+  </si>
+  <si>
+    <t>View VIP Customer List</t>
   </si>
   <si>
     <r>
@@ -1172,66 +1255,77 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"Picked".</t>
+      <t xml:space="preserve">"Picked", </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Task bar yêu cầu của người đi xe sẽ được hiển thị kèm theo nút "</t>
+      <t xml:space="preserve"> màn hình hiển thị thông tin thanh toán (dạng popup) được hiện ra - thông tin về số tiền quãng đường sẽ được tự động cập nhật sau 20 giây</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Task bar thông tin người đi xe sẽ được hiển thị kèm theo thông báo "ĐÃ TRẢ KHÁCH " (</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ĐÃ TRẢ KHÁCH</t>
+      <t>Hình C</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> " đến khi nào lái xe đưa khách đến nơi</t>
+      <t>) sau khi lái xe chọn nút "Thanh Toán" trên màn hình thanh toán</t>
     </r>
   </si>
   <si>
-    <t>Đã Đón Khách</t>
-  </si>
-  <si>
-    <t>Hủy Chuyến</t>
-  </si>
-  <si>
-    <t>Đã Trả Khách</t>
-  </si>
-  <si>
-    <t>Sơ đồ trạng thái của Trip</t>
-  </si>
-  <si>
-    <t>Sơ Đồ Trạng Thái của Driver</t>
+    <t>ĐT:091220003</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>Địa chỉ:</t>
+  </si>
+  <si>
+    <t>Hình A</t>
+  </si>
+  <si>
+    <t>Hình B</t>
+  </si>
+  <si>
+    <t>Hình C</t>
+  </si>
+  <si>
+    <t>Hóa Đơn Thanh Toán</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1347,8 +1441,33 @@
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1379,8 +1498,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="54">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1997,13 +2122,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2117,12 +2279,29 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2212,6 +2391,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3688,303 +3870,770 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AQ43"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="102" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="102" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="102" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="I3" s="102" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="103">
+        <v>1</v>
+      </c>
+      <c r="B4" s="109" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="103"/>
+      <c r="G4" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H4" s="104" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="103">
+        <v>2</v>
+      </c>
+      <c r="B5" s="110"/>
+      <c r="C5" s="103" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>253</v>
+      </c>
+      <c r="E5" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="103"/>
+      <c r="G5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H5" s="101" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="103">
+        <v>3</v>
+      </c>
+      <c r="B6" s="110"/>
+      <c r="C6" s="103" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="103" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="103"/>
+      <c r="G6" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H6" s="101" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="103"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="103" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="103"/>
+      <c r="G7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H7" s="101" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="103"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="103" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="103" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="103"/>
+      <c r="G8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H8" s="101"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="103"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="103" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="103" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="103"/>
+      <c r="G9" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H9" s="101"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="103"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="103" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" s="103"/>
+      <c r="G10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H10" s="101"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="103"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="103" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" s="103" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="103"/>
+      <c r="G11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H11" s="101"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="103"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="103" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="103" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="103"/>
+      <c r="G12" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H12" s="101"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="103"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="103" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" s="103"/>
+      <c r="G13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" s="101"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="103"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H14" s="101"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="103"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="103"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="103"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="103"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="103"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="103"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="103"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="103"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="103"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="103"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="103"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="103"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="103"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="103"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="103"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AS43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" customWidth="1"/>
-    <col min="6" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="2.5703125" customWidth="1"/>
-    <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" customWidth="1"/>
-    <col min="15" max="15" width="3.85546875" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" customWidth="1"/>
-    <col min="18" max="18" width="5" customWidth="1"/>
-    <col min="19" max="20" width="4.7109375" customWidth="1"/>
-    <col min="21" max="21" width="3.5703125" customWidth="1"/>
-    <col min="22" max="22" width="4" customWidth="1"/>
-    <col min="23" max="23" width="4.28515625" customWidth="1"/>
-    <col min="24" max="24" width="3.5703125" customWidth="1"/>
-    <col min="25" max="26" width="4.140625" customWidth="1"/>
-    <col min="27" max="27" width="3.85546875" customWidth="1"/>
-    <col min="28" max="28" width="3.7109375" customWidth="1"/>
-    <col min="29" max="29" width="4" customWidth="1"/>
+    <col min="2" max="2" width="1.140625" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="1.140625" customWidth="1"/>
+    <col min="7" max="9" width="4.42578125" customWidth="1"/>
+    <col min="10" max="11" width="4.140625" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" customWidth="1"/>
+    <col min="13" max="13" width="1.28515625" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" customWidth="1"/>
+    <col min="20" max="20" width="5" customWidth="1"/>
+    <col min="21" max="22" width="4.7109375" customWidth="1"/>
+    <col min="23" max="23" width="3.5703125" customWidth="1"/>
+    <col min="24" max="24" width="4" customWidth="1"/>
+    <col min="25" max="25" width="4.28515625" customWidth="1"/>
+    <col min="26" max="26" width="3.5703125" customWidth="1"/>
+    <col min="27" max="27" width="5.28515625" customWidth="1"/>
+    <col min="28" max="28" width="4.140625" customWidth="1"/>
+    <col min="29" max="29" width="3.85546875" customWidth="1"/>
     <col min="30" max="30" width="3.7109375" customWidth="1"/>
-    <col min="31" max="31" width="4.7109375" customWidth="1"/>
+    <col min="31" max="31" width="4" customWidth="1"/>
     <col min="32" max="32" width="3.7109375" customWidth="1"/>
-    <col min="33" max="33" width="4.28515625" customWidth="1"/>
-    <col min="34" max="35" width="3.85546875" customWidth="1"/>
-    <col min="36" max="36" width="4.140625" customWidth="1"/>
-    <col min="37" max="37" width="4.28515625" customWidth="1"/>
-    <col min="38" max="38" width="4.85546875" customWidth="1"/>
-    <col min="39" max="39" width="5.28515625" customWidth="1"/>
-    <col min="40" max="40" width="4.7109375" customWidth="1"/>
-    <col min="41" max="41" width="3.85546875" customWidth="1"/>
-    <col min="42" max="42" width="4.42578125" customWidth="1"/>
-    <col min="43" max="43" width="4.28515625" customWidth="1"/>
+    <col min="33" max="33" width="4.7109375" customWidth="1"/>
+    <col min="34" max="34" width="3.7109375" customWidth="1"/>
+    <col min="35" max="35" width="4.28515625" customWidth="1"/>
+    <col min="36" max="37" width="3.85546875" customWidth="1"/>
+    <col min="38" max="38" width="4.140625" customWidth="1"/>
+    <col min="39" max="39" width="4.28515625" customWidth="1"/>
+    <col min="40" max="40" width="4.85546875" customWidth="1"/>
+    <col min="41" max="41" width="5.28515625" customWidth="1"/>
+    <col min="42" max="42" width="4.7109375" customWidth="1"/>
+    <col min="43" max="43" width="3.85546875" customWidth="1"/>
+    <col min="44" max="44" width="4.42578125" customWidth="1"/>
+    <col min="45" max="45" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40" t="s">
-        <v>59</v>
-      </c>
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="40"/>
       <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-    </row>
-    <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="134" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="135"/>
+    </row>
+    <row r="4" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
-      <c r="C4" s="103" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="43"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="43"/>
+    </row>
+    <row r="5" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="43"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="137" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="43"/>
+    </row>
+    <row r="6" spans="2:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="43"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="43"/>
+    </row>
+    <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="42"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="43"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="138" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="43"/>
+    </row>
+    <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="42"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="43"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="44"/>
+    </row>
+    <row r="9" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="42"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="43"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="45"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="42"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="43"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="44"/>
+    </row>
+    <row r="11" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="42"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="44"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="65"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="44"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="42"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="45"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="45"/>
+    </row>
+    <row r="13" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="44"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="45"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="45"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="45"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="45"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="45"/>
+    </row>
+    <row r="16" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="42"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="45"/>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="45"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B17" s="42"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="45"/>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="45"/>
+    </row>
+    <row r="18" spans="1:45" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="45"/>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="45"/>
+    </row>
+    <row r="19" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="42"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="43"/>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C19" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="127" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="127"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="45"/>
+    </row>
+    <row r="20" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="42"/>
-      <c r="C20" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="43"/>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C20" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="130"/>
+      <c r="M20" s="43"/>
+    </row>
+    <row r="21" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="42"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="43"/>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C21" s="139" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="45"/>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="B22" s="42"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
       <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="43"/>
-    </row>
-    <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="43"/>
+    </row>
+    <row r="23" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="47"/>
       <c r="C23" s="48"/>
       <c r="D23" s="48"/>
@@ -3994,9 +4643,11 @@
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
       <c r="J23" s="48"/>
-      <c r="K23" s="49"/>
-    </row>
-    <row r="29" spans="1:43" s="53" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="49"/>
+    </row>
+    <row r="29" spans="1:45" s="53" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="50"/>
       <c r="B29" s="51" t="s">
         <v>63</v>
@@ -4015,11 +4666,13 @@
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
-      <c r="Q29" s="52"/>
+      <c r="Q29"/>
       <c r="R29"/>
       <c r="S29" s="52"/>
-    </row>
-    <row r="30" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T29"/>
+      <c r="U29" s="52"/>
+    </row>
+    <row r="30" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="50"/>
       <c r="B30" s="54" t="s">
         <v>64</v>
@@ -4040,11 +4693,11 @@
       <c r="N30" s="55"/>
       <c r="O30" s="55"/>
       <c r="P30" s="55"/>
-      <c r="Q30" s="56"/>
+      <c r="Q30" s="55"/>
       <c r="R30" s="55"/>
       <c r="S30" s="56"/>
       <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
+      <c r="U30" s="56"/>
       <c r="V30" s="55"/>
       <c r="W30" s="55"/>
       <c r="X30" s="55"/>
@@ -4066,64 +4719,68 @@
       <c r="AN30" s="55"/>
       <c r="AO30" s="55"/>
       <c r="AP30" s="55"/>
-      <c r="AQ30" s="57"/>
-    </row>
-    <row r="31" spans="1:43" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ30" s="55"/>
+      <c r="AR30" s="55"/>
+      <c r="AS30" s="57"/>
+    </row>
+    <row r="31" spans="1:45" s="53" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="50"/>
       <c r="B31" s="58">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="59"/>
-      <c r="AF31" s="59"/>
-      <c r="AG31" s="59"/>
-      <c r="AH31" s="59"/>
-      <c r="AI31" s="59"/>
-      <c r="AJ31" s="59"/>
-      <c r="AK31" s="59"/>
-      <c r="AL31" s="59"/>
-      <c r="AM31" s="59"/>
-      <c r="AN31" s="59"/>
-      <c r="AO31" s="59"/>
-      <c r="AP31" s="59"/>
-      <c r="AQ31" s="60"/>
-    </row>
-    <row r="32" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="131" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="132"/>
+      <c r="Q31" s="132"/>
+      <c r="R31" s="132"/>
+      <c r="S31" s="132"/>
+      <c r="T31" s="132"/>
+      <c r="U31" s="132"/>
+      <c r="V31" s="132"/>
+      <c r="W31" s="132"/>
+      <c r="X31" s="132"/>
+      <c r="Y31" s="132"/>
+      <c r="Z31" s="132"/>
+      <c r="AA31" s="132"/>
+      <c r="AB31" s="132"/>
+      <c r="AC31" s="132"/>
+      <c r="AD31" s="132"/>
+      <c r="AE31" s="132"/>
+      <c r="AF31" s="132"/>
+      <c r="AG31" s="132"/>
+      <c r="AH31" s="132"/>
+      <c r="AI31" s="132"/>
+      <c r="AJ31" s="132"/>
+      <c r="AK31" s="132"/>
+      <c r="AL31" s="132"/>
+      <c r="AM31" s="132"/>
+      <c r="AN31" s="132"/>
+      <c r="AO31" s="132"/>
+      <c r="AP31" s="132"/>
+      <c r="AQ31" s="132"/>
+      <c r="AR31" s="132"/>
+      <c r="AS31" s="133"/>
+    </row>
+    <row r="32" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50"/>
       <c r="B32" s="61">
         <v>2</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="D32" s="62"/>
       <c r="E32" s="62"/>
@@ -4134,14 +4791,14 @@
       <c r="J32" s="62"/>
       <c r="K32" s="62"/>
       <c r="L32" s="62"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="63"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="59"/>
+      <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
+      <c r="T32" s="2"/>
       <c r="U32" s="59"/>
       <c r="V32" s="59"/>
       <c r="W32" s="59"/>
@@ -4164,14 +4821,20 @@
       <c r="AN32" s="59"/>
       <c r="AO32" s="59"/>
       <c r="AP32" s="59"/>
-      <c r="AQ32" s="60"/>
-    </row>
-    <row r="33" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ32" s="59"/>
+      <c r="AR32" s="59"/>
+      <c r="AS32" s="60"/>
+    </row>
+    <row r="33" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="50"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="64"/>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>119</v>
+      </c>
       <c r="D33" s="59"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="59"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -4183,10 +4846,10 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="59"/>
+      <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
+      <c r="T33" s="2"/>
       <c r="U33" s="59"/>
       <c r="V33" s="59"/>
       <c r="W33" s="59"/>
@@ -4209,12 +4872,18 @@
       <c r="AN33" s="59"/>
       <c r="AO33" s="59"/>
       <c r="AP33" s="59"/>
-      <c r="AQ33" s="60"/>
-    </row>
-    <row r="34" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ33" s="59"/>
+      <c r="AR33" s="59"/>
+      <c r="AS33" s="60"/>
+    </row>
+    <row r="34" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="65"/>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="65" t="s">
+        <v>120</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -4228,10 +4897,10 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="59"/>
+      <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
+      <c r="T34" s="2"/>
       <c r="U34" s="59"/>
       <c r="V34" s="59"/>
       <c r="W34" s="59"/>
@@ -4254,9 +4923,11 @@
       <c r="AN34" s="59"/>
       <c r="AO34" s="59"/>
       <c r="AP34" s="59"/>
-      <c r="AQ34" s="60"/>
-    </row>
-    <row r="35" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ34" s="59"/>
+      <c r="AR34" s="59"/>
+      <c r="AS34" s="60"/>
+    </row>
+    <row r="35" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50"/>
       <c r="B35" s="66"/>
       <c r="C35" s="65"/>
@@ -4273,10 +4944,10 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="59"/>
+      <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
+      <c r="T35" s="2"/>
       <c r="U35" s="59"/>
       <c r="V35" s="59"/>
       <c r="W35" s="59"/>
@@ -4299,29 +4970,31 @@
       <c r="AN35" s="59"/>
       <c r="AO35" s="59"/>
       <c r="AP35" s="59"/>
-      <c r="AQ35" s="60"/>
-    </row>
-    <row r="36" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ35" s="59"/>
+      <c r="AR35" s="59"/>
+      <c r="AS35" s="60"/>
+    </row>
+    <row r="36" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="50"/>
       <c r="B36" s="1"/>
       <c r="C36" s="65"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="59"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="59"/>
       <c r="H36" s="59"/>
       <c r="I36" s="59"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="59"/>
+      <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
+      <c r="T36" s="2"/>
       <c r="U36" s="59"/>
       <c r="V36" s="59"/>
       <c r="W36" s="59"/>
@@ -4344,9 +5017,11 @@
       <c r="AN36" s="59"/>
       <c r="AO36" s="59"/>
       <c r="AP36" s="59"/>
-      <c r="AQ36" s="60"/>
-    </row>
-    <row r="37" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ36" s="59"/>
+      <c r="AR36" s="59"/>
+      <c r="AS36" s="60"/>
+    </row>
+    <row r="37" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="50"/>
       <c r="B37" s="67"/>
       <c r="C37" s="65"/>
@@ -4363,10 +5038,10 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="59"/>
+      <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
+      <c r="T37" s="2"/>
       <c r="U37" s="59"/>
       <c r="V37" s="59"/>
       <c r="W37" s="59"/>
@@ -4389,9 +5064,11 @@
       <c r="AN37" s="59"/>
       <c r="AO37" s="59"/>
       <c r="AP37" s="59"/>
-      <c r="AQ37" s="60"/>
-    </row>
-    <row r="38" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ37" s="59"/>
+      <c r="AR37" s="59"/>
+      <c r="AS37" s="60"/>
+    </row>
+    <row r="38" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50"/>
       <c r="B38" s="1"/>
       <c r="C38" s="65"/>
@@ -4408,10 +5085,10 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="59"/>
+      <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
+      <c r="T38" s="2"/>
       <c r="U38" s="59"/>
       <c r="V38" s="59"/>
       <c r="W38" s="59"/>
@@ -4434,9 +5111,11 @@
       <c r="AN38" s="59"/>
       <c r="AO38" s="59"/>
       <c r="AP38" s="59"/>
-      <c r="AQ38" s="60"/>
-    </row>
-    <row r="39" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ38" s="59"/>
+      <c r="AR38" s="59"/>
+      <c r="AS38" s="60"/>
+    </row>
+    <row r="39" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50"/>
       <c r="B39" s="58"/>
       <c r="C39" s="2"/>
@@ -4446,17 +5125,17 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="59"/>
+      <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="L39" s="59"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="59"/>
+      <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
+      <c r="T39" s="2"/>
       <c r="U39" s="59"/>
       <c r="V39" s="59"/>
       <c r="W39" s="59"/>
@@ -4479,9 +5158,11 @@
       <c r="AN39" s="59"/>
       <c r="AO39" s="59"/>
       <c r="AP39" s="59"/>
-      <c r="AQ39" s="60"/>
-    </row>
-    <row r="40" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ39" s="59"/>
+      <c r="AR39" s="59"/>
+      <c r="AS39" s="60"/>
+    </row>
+    <row r="40" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50"/>
       <c r="B40" s="58"/>
       <c r="C40" s="2"/>
@@ -4498,10 +5179,10 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="Q40" s="59"/>
+      <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
+      <c r="T40" s="2"/>
       <c r="U40" s="59"/>
       <c r="V40" s="59"/>
       <c r="W40" s="59"/>
@@ -4524,9 +5205,11 @@
       <c r="AN40" s="59"/>
       <c r="AO40" s="59"/>
       <c r="AP40" s="59"/>
-      <c r="AQ40" s="60"/>
-    </row>
-    <row r="41" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ40" s="59"/>
+      <c r="AR40" s="59"/>
+      <c r="AS40" s="60"/>
+    </row>
+    <row r="41" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50"/>
       <c r="B41" s="58"/>
       <c r="C41" s="2"/>
@@ -4543,10 +5226,10 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="Q41" s="59"/>
+      <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
+      <c r="T41" s="2"/>
       <c r="U41" s="59"/>
       <c r="V41" s="59"/>
       <c r="W41" s="59"/>
@@ -4569,9 +5252,11 @@
       <c r="AN41" s="59"/>
       <c r="AO41" s="59"/>
       <c r="AP41" s="59"/>
-      <c r="AQ41" s="60"/>
-    </row>
-    <row r="42" spans="1:43" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ41" s="59"/>
+      <c r="AR41" s="59"/>
+      <c r="AS41" s="60"/>
+    </row>
+    <row r="42" spans="1:45" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="50"/>
       <c r="B42" s="68"/>
       <c r="C42" s="69"/>
@@ -4588,8 +5273,8 @@
       <c r="N42" s="69"/>
       <c r="O42" s="69"/>
       <c r="P42" s="69"/>
-      <c r="Q42" s="70"/>
-      <c r="R42" s="70"/>
+      <c r="Q42" s="69"/>
+      <c r="R42" s="69"/>
       <c r="S42" s="70"/>
       <c r="T42" s="70"/>
       <c r="U42" s="70"/>
@@ -4614,9 +5299,11 @@
       <c r="AN42" s="70"/>
       <c r="AO42" s="70"/>
       <c r="AP42" s="70"/>
-      <c r="AQ42" s="71"/>
-    </row>
-    <row r="43" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ42" s="70"/>
+      <c r="AR42" s="70"/>
+      <c r="AS42" s="71"/>
+    </row>
+    <row r="43" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -4633,13 +5320,23 @@
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="2"/>
+      <c r="Q43"/>
+      <c r="R43"/>
       <c r="S43" s="59"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C4:J19"/>
+  <mergeCells count="9">
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="C31:AS31"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="C5:E7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="C21:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4647,7 +5344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H27"/>
   <sheetViews>
@@ -4670,15 +5367,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -5092,7 +5789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AS46"/>
   <sheetViews>
@@ -5149,17 +5846,17 @@
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="134" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="135"/>
     </row>
     <row r="4" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
@@ -5177,20 +5874,20 @@
     </row>
     <row r="5" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="141" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="128" t="s">
+      <c r="D5" s="141"/>
+      <c r="E5" s="137" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
       <c r="M5" s="43"/>
     </row>
     <row r="6" spans="2:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5213,16 +5910,16 @@
         <v>182</v>
       </c>
       <c r="D7" s="94"/>
-      <c r="E7" s="132" t="s">
+      <c r="E7" s="141" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
       <c r="M7" s="43"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5232,15 +5929,15 @@
       </c>
       <c r="D8" s="95"/>
       <c r="E8" s="95"/>
-      <c r="F8" s="133" t="s">
+      <c r="F8" s="142" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
       <c r="M8" s="44"/>
     </row>
     <row r="9" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5349,16 +6046,16 @@
     </row>
     <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="42"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
       <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5377,16 +6074,16 @@
     </row>
     <row r="18" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="131"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
       <c r="M18" s="45"/>
     </row>
     <row r="19" spans="1:21" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5434,43 +6131,43 @@
     <row r="22" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="42"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="140"/>
+      <c r="L22" s="140"/>
       <c r="M22" s="45"/>
     </row>
     <row r="23" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="42"/>
       <c r="C23" s="46"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="129"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
       <c r="M23" s="43"/>
     </row>
     <row r="24" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="42"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="140"/>
+      <c r="K24" s="140"/>
+      <c r="L24" s="140"/>
       <c r="M24" s="45"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -5582,51 +6279,51 @@
       <c r="B34" s="58">
         <v>1</v>
       </c>
-      <c r="C34" s="122" t="s">
+      <c r="C34" s="131" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="123"/>
-      <c r="N34" s="123"/>
-      <c r="O34" s="123"/>
-      <c r="P34" s="123"/>
-      <c r="Q34" s="123"/>
-      <c r="R34" s="123"/>
-      <c r="S34" s="123"/>
-      <c r="T34" s="123"/>
-      <c r="U34" s="123"/>
-      <c r="V34" s="123"/>
-      <c r="W34" s="123"/>
-      <c r="X34" s="123"/>
-      <c r="Y34" s="123"/>
-      <c r="Z34" s="123"/>
-      <c r="AA34" s="123"/>
-      <c r="AB34" s="123"/>
-      <c r="AC34" s="123"/>
-      <c r="AD34" s="123"/>
-      <c r="AE34" s="123"/>
-      <c r="AF34" s="123"/>
-      <c r="AG34" s="123"/>
-      <c r="AH34" s="123"/>
-      <c r="AI34" s="123"/>
-      <c r="AJ34" s="123"/>
-      <c r="AK34" s="123"/>
-      <c r="AL34" s="123"/>
-      <c r="AM34" s="123"/>
-      <c r="AN34" s="123"/>
-      <c r="AO34" s="123"/>
-      <c r="AP34" s="123"/>
-      <c r="AQ34" s="123"/>
-      <c r="AR34" s="123"/>
-      <c r="AS34" s="124"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="132"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="132"/>
+      <c r="N34" s="132"/>
+      <c r="O34" s="132"/>
+      <c r="P34" s="132"/>
+      <c r="Q34" s="132"/>
+      <c r="R34" s="132"/>
+      <c r="S34" s="132"/>
+      <c r="T34" s="132"/>
+      <c r="U34" s="132"/>
+      <c r="V34" s="132"/>
+      <c r="W34" s="132"/>
+      <c r="X34" s="132"/>
+      <c r="Y34" s="132"/>
+      <c r="Z34" s="132"/>
+      <c r="AA34" s="132"/>
+      <c r="AB34" s="132"/>
+      <c r="AC34" s="132"/>
+      <c r="AD34" s="132"/>
+      <c r="AE34" s="132"/>
+      <c r="AF34" s="132"/>
+      <c r="AG34" s="132"/>
+      <c r="AH34" s="132"/>
+      <c r="AI34" s="132"/>
+      <c r="AJ34" s="132"/>
+      <c r="AK34" s="132"/>
+      <c r="AL34" s="132"/>
+      <c r="AM34" s="132"/>
+      <c r="AN34" s="132"/>
+      <c r="AO34" s="132"/>
+      <c r="AP34" s="132"/>
+      <c r="AQ34" s="132"/>
+      <c r="AR34" s="132"/>
+      <c r="AS34" s="133"/>
     </row>
     <row r="35" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50"/>
@@ -6201,35 +6898,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6247,15 +6921,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -6669,7 +7343,991 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AQ43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="6" max="8" width="4.42578125" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="2.5703125" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" customWidth="1"/>
+    <col min="15" max="15" width="3.85546875" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" customWidth="1"/>
+    <col min="18" max="18" width="5" customWidth="1"/>
+    <col min="19" max="20" width="4.7109375" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" customWidth="1"/>
+    <col min="22" max="22" width="4" customWidth="1"/>
+    <col min="23" max="23" width="4.28515625" customWidth="1"/>
+    <col min="24" max="24" width="3.5703125" customWidth="1"/>
+    <col min="25" max="26" width="4.140625" customWidth="1"/>
+    <col min="27" max="27" width="3.85546875" customWidth="1"/>
+    <col min="28" max="28" width="3.7109375" customWidth="1"/>
+    <col min="29" max="29" width="4" customWidth="1"/>
+    <col min="30" max="30" width="3.7109375" customWidth="1"/>
+    <col min="31" max="31" width="4.7109375" customWidth="1"/>
+    <col min="32" max="32" width="3.7109375" customWidth="1"/>
+    <col min="33" max="33" width="4.28515625" customWidth="1"/>
+    <col min="34" max="35" width="3.85546875" customWidth="1"/>
+    <col min="36" max="36" width="4.140625" customWidth="1"/>
+    <col min="37" max="37" width="4.28515625" customWidth="1"/>
+    <col min="38" max="38" width="4.85546875" customWidth="1"/>
+    <col min="39" max="39" width="5.28515625" customWidth="1"/>
+    <col min="40" max="40" width="4.7109375" customWidth="1"/>
+    <col min="41" max="41" width="3.85546875" customWidth="1"/>
+    <col min="42" max="42" width="4.42578125" customWidth="1"/>
+    <col min="43" max="43" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+    </row>
+    <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="42"/>
+      <c r="C4" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="43"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="42"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="43"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="42"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="43"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="42"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="43"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="42"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="43"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="42"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="43"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="42"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="43"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="42"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="44"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="42"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="45"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="42"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="44"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="42"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="45"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="42"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="45"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="42"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="45"/>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B17" s="42"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="45"/>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B18" s="42"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="45"/>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B19" s="42"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="43"/>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B20" s="42"/>
+      <c r="C20" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="43"/>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B21" s="42"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="43"/>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B22" s="42"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="43"/>
+    </row>
+    <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="49"/>
+    </row>
+    <row r="29" spans="1:43" s="53" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="50"/>
+      <c r="B29" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29" s="52"/>
+      <c r="R29"/>
+      <c r="S29" s="52"/>
+    </row>
+    <row r="30" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
+      <c r="B30" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="55"/>
+      <c r="AC30" s="55"/>
+      <c r="AD30" s="55"/>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="55"/>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="55"/>
+      <c r="AJ30" s="55"/>
+      <c r="AK30" s="55"/>
+      <c r="AL30" s="55"/>
+      <c r="AM30" s="55"/>
+      <c r="AN30" s="55"/>
+      <c r="AO30" s="55"/>
+      <c r="AP30" s="55"/>
+      <c r="AQ30" s="57"/>
+    </row>
+    <row r="31" spans="1:43" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
+      <c r="B31" s="58">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="59"/>
+      <c r="AE31" s="59"/>
+      <c r="AF31" s="59"/>
+      <c r="AG31" s="59"/>
+      <c r="AH31" s="59"/>
+      <c r="AI31" s="59"/>
+      <c r="AJ31" s="59"/>
+      <c r="AK31" s="59"/>
+      <c r="AL31" s="59"/>
+      <c r="AM31" s="59"/>
+      <c r="AN31" s="59"/>
+      <c r="AO31" s="59"/>
+      <c r="AP31" s="59"/>
+      <c r="AQ31" s="60"/>
+    </row>
+    <row r="32" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
+      <c r="B32" s="61">
+        <v>2</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="59"/>
+      <c r="AF32" s="59"/>
+      <c r="AG32" s="59"/>
+      <c r="AH32" s="59"/>
+      <c r="AI32" s="59"/>
+      <c r="AJ32" s="59"/>
+      <c r="AK32" s="59"/>
+      <c r="AL32" s="59"/>
+      <c r="AM32" s="59"/>
+      <c r="AN32" s="59"/>
+      <c r="AO32" s="59"/>
+      <c r="AP32" s="59"/>
+      <c r="AQ32" s="60"/>
+    </row>
+    <row r="33" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="59"/>
+      <c r="AG33" s="59"/>
+      <c r="AH33" s="59"/>
+      <c r="AI33" s="59"/>
+      <c r="AJ33" s="59"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="59"/>
+      <c r="AM33" s="59"/>
+      <c r="AN33" s="59"/>
+      <c r="AO33" s="59"/>
+      <c r="AP33" s="59"/>
+      <c r="AQ33" s="60"/>
+    </row>
+    <row r="34" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="59"/>
+      <c r="AJ34" s="59"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="59"/>
+      <c r="AO34" s="59"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="60"/>
+    </row>
+    <row r="35" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="59"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="59"/>
+      <c r="AK35" s="59"/>
+      <c r="AL35" s="59"/>
+      <c r="AM35" s="59"/>
+      <c r="AN35" s="59"/>
+      <c r="AO35" s="59"/>
+      <c r="AP35" s="59"/>
+      <c r="AQ35" s="60"/>
+    </row>
+    <row r="36" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="59"/>
+      <c r="AF36" s="59"/>
+      <c r="AG36" s="59"/>
+      <c r="AH36" s="59"/>
+      <c r="AI36" s="59"/>
+      <c r="AJ36" s="59"/>
+      <c r="AK36" s="59"/>
+      <c r="AL36" s="59"/>
+      <c r="AM36" s="59"/>
+      <c r="AN36" s="59"/>
+      <c r="AO36" s="59"/>
+      <c r="AP36" s="59"/>
+      <c r="AQ36" s="60"/>
+    </row>
+    <row r="37" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="50"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59"/>
+      <c r="AF37" s="59"/>
+      <c r="AG37" s="59"/>
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="59"/>
+      <c r="AK37" s="59"/>
+      <c r="AL37" s="59"/>
+      <c r="AM37" s="59"/>
+      <c r="AN37" s="59"/>
+      <c r="AO37" s="59"/>
+      <c r="AP37" s="59"/>
+      <c r="AQ37" s="60"/>
+    </row>
+    <row r="38" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59"/>
+      <c r="AF38" s="59"/>
+      <c r="AG38" s="59"/>
+      <c r="AH38" s="59"/>
+      <c r="AI38" s="59"/>
+      <c r="AJ38" s="59"/>
+      <c r="AK38" s="59"/>
+      <c r="AL38" s="59"/>
+      <c r="AM38" s="59"/>
+      <c r="AN38" s="59"/>
+      <c r="AO38" s="59"/>
+      <c r="AP38" s="59"/>
+      <c r="AQ38" s="60"/>
+    </row>
+    <row r="39" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="59"/>
+      <c r="AF39" s="59"/>
+      <c r="AG39" s="59"/>
+      <c r="AH39" s="59"/>
+      <c r="AI39" s="59"/>
+      <c r="AJ39" s="59"/>
+      <c r="AK39" s="59"/>
+      <c r="AL39" s="59"/>
+      <c r="AM39" s="59"/>
+      <c r="AN39" s="59"/>
+      <c r="AO39" s="59"/>
+      <c r="AP39" s="59"/>
+      <c r="AQ39" s="60"/>
+    </row>
+    <row r="40" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="50"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59"/>
+      <c r="AF40" s="59"/>
+      <c r="AG40" s="59"/>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="59"/>
+      <c r="AM40" s="59"/>
+      <c r="AN40" s="59"/>
+      <c r="AO40" s="59"/>
+      <c r="AP40" s="59"/>
+      <c r="AQ40" s="60"/>
+    </row>
+    <row r="41" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="50"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="59"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="59"/>
+      <c r="Y41" s="59"/>
+      <c r="Z41" s="59"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="59"/>
+      <c r="AF41" s="59"/>
+      <c r="AG41" s="59"/>
+      <c r="AH41" s="59"/>
+      <c r="AI41" s="59"/>
+      <c r="AJ41" s="59"/>
+      <c r="AK41" s="59"/>
+      <c r="AL41" s="59"/>
+      <c r="AM41" s="59"/>
+      <c r="AN41" s="59"/>
+      <c r="AO41" s="59"/>
+      <c r="AP41" s="59"/>
+      <c r="AQ41" s="60"/>
+    </row>
+    <row r="42" spans="1:43" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="50"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
+      <c r="T42" s="70"/>
+      <c r="U42" s="70"/>
+      <c r="V42" s="70"/>
+      <c r="W42" s="70"/>
+      <c r="X42" s="70"/>
+      <c r="Y42" s="70"/>
+      <c r="Z42" s="70"/>
+      <c r="AA42" s="70"/>
+      <c r="AB42" s="70"/>
+      <c r="AC42" s="70"/>
+      <c r="AD42" s="70"/>
+      <c r="AE42" s="70"/>
+      <c r="AF42" s="70"/>
+      <c r="AG42" s="70"/>
+      <c r="AH42" s="70"/>
+      <c r="AI42" s="70"/>
+      <c r="AJ42" s="70"/>
+      <c r="AK42" s="70"/>
+      <c r="AL42" s="70"/>
+      <c r="AM42" s="70"/>
+      <c r="AN42" s="70"/>
+      <c r="AO42" s="70"/>
+      <c r="AP42" s="70"/>
+      <c r="AQ42" s="71"/>
+    </row>
+    <row r="43" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="50"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:J19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
@@ -6692,15 +8350,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -7151,7 +8809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AQ42"/>
   <sheetViews>
@@ -7216,40 +8874,40 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
       <c r="K4" s="43"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
       <c r="K5" s="43"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
       <c r="K6" s="43"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -7295,11 +8953,11 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="120"/>
       <c r="K10" s="44"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7321,11 +8979,11 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="114"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="123"/>
       <c r="K12" s="44"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -8114,7 +9772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
@@ -8137,15 +9795,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -8601,12 +10259,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AS76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8625,10 +10283,10 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="115" t="s">
+      <c r="D4" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="115"/>
+      <c r="E4" s="124"/>
       <c r="F4" s="37" t="s">
         <v>18</v>
       </c>
@@ -8636,20 +10294,20 @@
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="115" t="s">
+      <c r="K4" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="115"/>
+      <c r="L4" s="124"/>
       <c r="M4" s="37" t="s">
         <v>18</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="115" t="s">
+      <c r="Q4" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="115"/>
+      <c r="R4" s="124"/>
       <c r="S4" s="37" t="s">
         <v>18</v>
       </c>
@@ -8852,51 +10510,63 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="3"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="34"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="3"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="108" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="107" t="s">
+        <v>273</v>
+      </c>
+      <c r="J19" s="106"/>
+      <c r="K19" s="108" t="s">
+        <v>272</v>
+      </c>
+      <c r="L19" s="33"/>
+      <c r="M19" s="107" t="s">
+        <v>273</v>
+      </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C20" s="116" t="s">
+      <c r="C20" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>47</v>
+      <c r="D20" s="108" t="s">
+        <v>274</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="34"/>
-      <c r="J20" s="116" t="s">
+      <c r="J20" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="33" t="s">
-        <v>47</v>
+      <c r="K20" s="108" t="s">
+        <v>274</v>
       </c>
       <c r="L20" s="33"/>
       <c r="M20" s="34"/>
-      <c r="P20" s="116" t="s">
+      <c r="P20" s="125" t="s">
         <v>44</v>
       </c>
       <c r="Q20" s="33" t="s">
@@ -8906,7 +10576,7 @@
       <c r="S20" s="34"/>
     </row>
     <row r="21" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="117"/>
+      <c r="C21" s="126"/>
       <c r="D21" s="35" t="s">
         <v>45</v>
       </c>
@@ -8914,17 +10584,17 @@
       <c r="F21" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="J21" s="117"/>
+      <c r="J21" s="126"/>
       <c r="K21" s="35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L21" s="35"/>
       <c r="M21" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="P21" s="117"/>
+        <v>235</v>
+      </c>
+      <c r="P21" s="126"/>
       <c r="Q21" s="35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="R21" s="35"/>
       <c r="S21" s="36"/>
@@ -8934,6 +10604,17 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="D23" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="29" spans="1:45" s="53" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="50"/>
@@ -9577,8 +11258,8 @@
       <c r="B42" s="58">
         <v>11</v>
       </c>
-      <c r="C42" s="101" t="s">
-        <v>235</v>
+      <c r="C42" s="105" t="s">
+        <v>270</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -9628,8 +11309,8 @@
       <c r="B43" s="58">
         <v>12</v>
       </c>
-      <c r="C43" s="92" t="s">
-        <v>234</v>
+      <c r="C43" s="105" t="s">
+        <v>271</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -9722,13 +11403,13 @@
       <c r="AS44" s="71"/>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B47" s="102" t="s">
-        <v>239</v>
+      <c r="B47" s="100" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="102" t="s">
-        <v>240</v>
+      <c r="B76" s="100" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -9746,7 +11427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
@@ -9769,15 +11450,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -10325,12 +12006,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AS44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10355,10 +12036,10 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="115" t="s">
+      <c r="D4" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="115"/>
+      <c r="E4" s="124"/>
       <c r="F4" s="37" t="s">
         <v>18</v>
       </c>
@@ -10380,13 +12061,15 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
       <c r="L6" s="96"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="98"/>
+      <c r="M6" s="144" t="s">
+        <v>278</v>
+      </c>
+      <c r="N6" s="144"/>
+      <c r="O6" s="144"/>
+      <c r="P6" s="144"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="97"/>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
@@ -10566,14 +12249,14 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3"/>
-      <c r="L18" s="99"/>
+      <c r="L18" s="98"/>
       <c r="M18" s="69"/>
       <c r="N18" s="69"/>
       <c r="O18" s="69"/>
       <c r="P18" s="69"/>
       <c r="Q18" s="69"/>
       <c r="R18" s="69"/>
-      <c r="S18" s="100"/>
+      <c r="S18" s="99"/>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
@@ -10582,7 +12265,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C20" s="116" t="s">
+      <c r="C20" s="125" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -10592,7 +12275,7 @@
       <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="117"/>
+      <c r="C21" s="126"/>
       <c r="D21" s="35" t="s">
         <v>45</v>
       </c>
@@ -11376,9 +13059,10 @@
       <c r="AS44" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="C20:C21"/>
+    <mergeCell ref="M6:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11386,7 +13070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H27"/>
   <sheetViews>
@@ -11409,15 +13093,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -11811,1078 +13495,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AS43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="1.140625" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" customWidth="1"/>
-    <col min="4" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="1.140625" customWidth="1"/>
-    <col min="7" max="9" width="4.42578125" customWidth="1"/>
-    <col min="10" max="11" width="4.140625" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" customWidth="1"/>
-    <col min="13" max="13" width="1.28515625" customWidth="1"/>
-    <col min="14" max="14" width="5" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" customWidth="1"/>
-    <col min="16" max="16" width="4.140625" customWidth="1"/>
-    <col min="17" max="17" width="3.85546875" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" customWidth="1"/>
-    <col min="19" max="19" width="4.42578125" customWidth="1"/>
-    <col min="20" max="20" width="5" customWidth="1"/>
-    <col min="21" max="22" width="4.7109375" customWidth="1"/>
-    <col min="23" max="23" width="3.5703125" customWidth="1"/>
-    <col min="24" max="24" width="4" customWidth="1"/>
-    <col min="25" max="25" width="4.28515625" customWidth="1"/>
-    <col min="26" max="26" width="3.5703125" customWidth="1"/>
-    <col min="27" max="27" width="5.28515625" customWidth="1"/>
-    <col min="28" max="28" width="4.140625" customWidth="1"/>
-    <col min="29" max="29" width="3.85546875" customWidth="1"/>
-    <col min="30" max="30" width="3.7109375" customWidth="1"/>
-    <col min="31" max="31" width="4" customWidth="1"/>
-    <col min="32" max="32" width="3.7109375" customWidth="1"/>
-    <col min="33" max="33" width="4.7109375" customWidth="1"/>
-    <col min="34" max="34" width="3.7109375" customWidth="1"/>
-    <col min="35" max="35" width="4.28515625" customWidth="1"/>
-    <col min="36" max="37" width="3.85546875" customWidth="1"/>
-    <col min="38" max="38" width="4.140625" customWidth="1"/>
-    <col min="39" max="39" width="4.28515625" customWidth="1"/>
-    <col min="40" max="40" width="4.85546875" customWidth="1"/>
-    <col min="41" max="41" width="5.28515625" customWidth="1"/>
-    <col min="42" max="42" width="4.7109375" customWidth="1"/>
-    <col min="43" max="43" width="3.85546875" customWidth="1"/>
-    <col min="44" max="44" width="4.42578125" customWidth="1"/>
-    <col min="45" max="45" width="4.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="125" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126"/>
-    </row>
-    <row r="4" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="42"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="43"/>
-    </row>
-    <row r="5" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="42"/>
-      <c r="C5" s="127" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="128" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="43"/>
-    </row>
-    <row r="6" spans="2:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="42"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="43"/>
-    </row>
-    <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="129" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="43"/>
-    </row>
-    <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="42"/>
-      <c r="C8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="44"/>
-    </row>
-    <row r="9" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="42"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="45"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="42"/>
-      <c r="C10" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="44"/>
-    </row>
-    <row r="11" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="44"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="42"/>
-      <c r="C12" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="45"/>
-    </row>
-    <row r="13" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
-      <c r="C13" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="45"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="42"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="45"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="45"/>
-    </row>
-    <row r="16" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="42"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="45"/>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B17" s="42"/>
-      <c r="C17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="45"/>
-    </row>
-    <row r="18" spans="1:45" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="42"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="45"/>
-    </row>
-    <row r="19" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="42"/>
-      <c r="C19" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="118" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="45"/>
-    </row>
-    <row r="20" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
-      <c r="C20" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="120" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="43"/>
-    </row>
-    <row r="21" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="42"/>
-      <c r="C21" s="130" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="45"/>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B22" s="42"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="43"/>
-    </row>
-    <row r="23" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="49"/>
-    </row>
-    <row r="29" spans="1:45" s="53" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29" s="52"/>
-      <c r="T29"/>
-      <c r="U29" s="52"/>
-    </row>
-    <row r="30" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="55"/>
-      <c r="AA30" s="55"/>
-      <c r="AB30" s="55"/>
-      <c r="AC30" s="55"/>
-      <c r="AD30" s="55"/>
-      <c r="AE30" s="55"/>
-      <c r="AF30" s="55"/>
-      <c r="AG30" s="55"/>
-      <c r="AH30" s="55"/>
-      <c r="AI30" s="55"/>
-      <c r="AJ30" s="55"/>
-      <c r="AK30" s="55"/>
-      <c r="AL30" s="55"/>
-      <c r="AM30" s="55"/>
-      <c r="AN30" s="55"/>
-      <c r="AO30" s="55"/>
-      <c r="AP30" s="55"/>
-      <c r="AQ30" s="55"/>
-      <c r="AR30" s="55"/>
-      <c r="AS30" s="57"/>
-    </row>
-    <row r="31" spans="1:45" s="53" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="58">
-        <v>1</v>
-      </c>
-      <c r="C31" s="122" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
-      <c r="M31" s="123"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="123"/>
-      <c r="S31" s="123"/>
-      <c r="T31" s="123"/>
-      <c r="U31" s="123"/>
-      <c r="V31" s="123"/>
-      <c r="W31" s="123"/>
-      <c r="X31" s="123"/>
-      <c r="Y31" s="123"/>
-      <c r="Z31" s="123"/>
-      <c r="AA31" s="123"/>
-      <c r="AB31" s="123"/>
-      <c r="AC31" s="123"/>
-      <c r="AD31" s="123"/>
-      <c r="AE31" s="123"/>
-      <c r="AF31" s="123"/>
-      <c r="AG31" s="123"/>
-      <c r="AH31" s="123"/>
-      <c r="AI31" s="123"/>
-      <c r="AJ31" s="123"/>
-      <c r="AK31" s="123"/>
-      <c r="AL31" s="123"/>
-      <c r="AM31" s="123"/>
-      <c r="AN31" s="123"/>
-      <c r="AO31" s="123"/>
-      <c r="AP31" s="123"/>
-      <c r="AQ31" s="123"/>
-      <c r="AR31" s="123"/>
-      <c r="AS31" s="124"/>
-    </row>
-    <row r="32" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="61">
-        <v>2</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="59"/>
-      <c r="AF32" s="59"/>
-      <c r="AG32" s="59"/>
-      <c r="AH32" s="59"/>
-      <c r="AI32" s="59"/>
-      <c r="AJ32" s="59"/>
-      <c r="AK32" s="59"/>
-      <c r="AL32" s="59"/>
-      <c r="AM32" s="59"/>
-      <c r="AN32" s="59"/>
-      <c r="AO32" s="59"/>
-      <c r="AP32" s="59"/>
-      <c r="AQ32" s="59"/>
-      <c r="AR32" s="59"/>
-      <c r="AS32" s="60"/>
-    </row>
-    <row r="33" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="1">
-        <v>3</v>
-      </c>
-      <c r="C33" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="59"/>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="59"/>
-      <c r="AH33" s="59"/>
-      <c r="AI33" s="59"/>
-      <c r="AJ33" s="59"/>
-      <c r="AK33" s="59"/>
-      <c r="AL33" s="59"/>
-      <c r="AM33" s="59"/>
-      <c r="AN33" s="59"/>
-      <c r="AO33" s="59"/>
-      <c r="AP33" s="59"/>
-      <c r="AQ33" s="59"/>
-      <c r="AR33" s="59"/>
-      <c r="AS33" s="60"/>
-    </row>
-    <row r="34" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="1">
-        <v>4</v>
-      </c>
-      <c r="C34" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="59"/>
-      <c r="AF34" s="59"/>
-      <c r="AG34" s="59"/>
-      <c r="AH34" s="59"/>
-      <c r="AI34" s="59"/>
-      <c r="AJ34" s="59"/>
-      <c r="AK34" s="59"/>
-      <c r="AL34" s="59"/>
-      <c r="AM34" s="59"/>
-      <c r="AN34" s="59"/>
-      <c r="AO34" s="59"/>
-      <c r="AP34" s="59"/>
-      <c r="AQ34" s="59"/>
-      <c r="AR34" s="59"/>
-      <c r="AS34" s="60"/>
-    </row>
-    <row r="35" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="59"/>
-      <c r="AF35" s="59"/>
-      <c r="AG35" s="59"/>
-      <c r="AH35" s="59"/>
-      <c r="AI35" s="59"/>
-      <c r="AJ35" s="59"/>
-      <c r="AK35" s="59"/>
-      <c r="AL35" s="59"/>
-      <c r="AM35" s="59"/>
-      <c r="AN35" s="59"/>
-      <c r="AO35" s="59"/>
-      <c r="AP35" s="59"/>
-      <c r="AQ35" s="59"/>
-      <c r="AR35" s="59"/>
-      <c r="AS35" s="60"/>
-    </row>
-    <row r="36" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="59"/>
-      <c r="AC36" s="59"/>
-      <c r="AD36" s="59"/>
-      <c r="AE36" s="59"/>
-      <c r="AF36" s="59"/>
-      <c r="AG36" s="59"/>
-      <c r="AH36" s="59"/>
-      <c r="AI36" s="59"/>
-      <c r="AJ36" s="59"/>
-      <c r="AK36" s="59"/>
-      <c r="AL36" s="59"/>
-      <c r="AM36" s="59"/>
-      <c r="AN36" s="59"/>
-      <c r="AO36" s="59"/>
-      <c r="AP36" s="59"/>
-      <c r="AQ36" s="59"/>
-      <c r="AR36" s="59"/>
-      <c r="AS36" s="60"/>
-    </row>
-    <row r="37" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="59"/>
-      <c r="AB37" s="59"/>
-      <c r="AC37" s="59"/>
-      <c r="AD37" s="59"/>
-      <c r="AE37" s="59"/>
-      <c r="AF37" s="59"/>
-      <c r="AG37" s="59"/>
-      <c r="AH37" s="59"/>
-      <c r="AI37" s="59"/>
-      <c r="AJ37" s="59"/>
-      <c r="AK37" s="59"/>
-      <c r="AL37" s="59"/>
-      <c r="AM37" s="59"/>
-      <c r="AN37" s="59"/>
-      <c r="AO37" s="59"/>
-      <c r="AP37" s="59"/>
-      <c r="AQ37" s="59"/>
-      <c r="AR37" s="59"/>
-      <c r="AS37" s="60"/>
-    </row>
-    <row r="38" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="59"/>
-      <c r="AE38" s="59"/>
-      <c r="AF38" s="59"/>
-      <c r="AG38" s="59"/>
-      <c r="AH38" s="59"/>
-      <c r="AI38" s="59"/>
-      <c r="AJ38" s="59"/>
-      <c r="AK38" s="59"/>
-      <c r="AL38" s="59"/>
-      <c r="AM38" s="59"/>
-      <c r="AN38" s="59"/>
-      <c r="AO38" s="59"/>
-      <c r="AP38" s="59"/>
-      <c r="AQ38" s="59"/>
-      <c r="AR38" s="59"/>
-      <c r="AS38" s="60"/>
-    </row>
-    <row r="39" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="59"/>
-      <c r="AF39" s="59"/>
-      <c r="AG39" s="59"/>
-      <c r="AH39" s="59"/>
-      <c r="AI39" s="59"/>
-      <c r="AJ39" s="59"/>
-      <c r="AK39" s="59"/>
-      <c r="AL39" s="59"/>
-      <c r="AM39" s="59"/>
-      <c r="AN39" s="59"/>
-      <c r="AO39" s="59"/>
-      <c r="AP39" s="59"/>
-      <c r="AQ39" s="59"/>
-      <c r="AR39" s="59"/>
-      <c r="AS39" s="60"/>
-    </row>
-    <row r="40" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="59"/>
-      <c r="V40" s="59"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="59"/>
-      <c r="AF40" s="59"/>
-      <c r="AG40" s="59"/>
-      <c r="AH40" s="59"/>
-      <c r="AI40" s="59"/>
-      <c r="AJ40" s="59"/>
-      <c r="AK40" s="59"/>
-      <c r="AL40" s="59"/>
-      <c r="AM40" s="59"/>
-      <c r="AN40" s="59"/>
-      <c r="AO40" s="59"/>
-      <c r="AP40" s="59"/>
-      <c r="AQ40" s="59"/>
-      <c r="AR40" s="59"/>
-      <c r="AS40" s="60"/>
-    </row>
-    <row r="41" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="59"/>
-      <c r="V41" s="59"/>
-      <c r="W41" s="59"/>
-      <c r="X41" s="59"/>
-      <c r="Y41" s="59"/>
-      <c r="Z41" s="59"/>
-      <c r="AA41" s="59"/>
-      <c r="AB41" s="59"/>
-      <c r="AC41" s="59"/>
-      <c r="AD41" s="59"/>
-      <c r="AE41" s="59"/>
-      <c r="AF41" s="59"/>
-      <c r="AG41" s="59"/>
-      <c r="AH41" s="59"/>
-      <c r="AI41" s="59"/>
-      <c r="AJ41" s="59"/>
-      <c r="AK41" s="59"/>
-      <c r="AL41" s="59"/>
-      <c r="AM41" s="59"/>
-      <c r="AN41" s="59"/>
-      <c r="AO41" s="59"/>
-      <c r="AP41" s="59"/>
-      <c r="AQ41" s="59"/>
-      <c r="AR41" s="59"/>
-      <c r="AS41" s="60"/>
-    </row>
-    <row r="42" spans="1:45" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="50"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="69"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="70"/>
-      <c r="T42" s="70"/>
-      <c r="U42" s="70"/>
-      <c r="V42" s="70"/>
-      <c r="W42" s="70"/>
-      <c r="X42" s="70"/>
-      <c r="Y42" s="70"/>
-      <c r="Z42" s="70"/>
-      <c r="AA42" s="70"/>
-      <c r="AB42" s="70"/>
-      <c r="AC42" s="70"/>
-      <c r="AD42" s="70"/>
-      <c r="AE42" s="70"/>
-      <c r="AF42" s="70"/>
-      <c r="AG42" s="70"/>
-      <c r="AH42" s="70"/>
-      <c r="AI42" s="70"/>
-      <c r="AJ42" s="70"/>
-      <c r="AK42" s="70"/>
-      <c r="AL42" s="70"/>
-      <c r="AM42" s="70"/>
-      <c r="AN42" s="70"/>
-      <c r="AO42" s="70"/>
-      <c r="AP42" s="70"/>
-      <c r="AQ42" s="70"/>
-      <c r="AR42" s="70"/>
-      <c r="AS42" s="71"/>
-    </row>
-    <row r="43" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="59"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="C31:AS31"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="C5:E7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="C21:L21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/trunk/WIP/Documents/Requirements/Mockup/Mobile/TaxiNet_ScreenDesign_DriverM.xlsx
+++ b/trunk/WIP/Documents/Requirements/Mockup/Mobile/TaxiNet_ScreenDesign_DriverM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="844" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="844"/>
   </bookViews>
   <sheets>
     <sheet name="Function List" sheetId="14" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="284">
   <si>
     <t>Địa Điểm</t>
   </si>
@@ -1319,6 +1319,25 @@
   </si>
   <si>
     <t>Hóa Đơn Thanh Toán</t>
+  </si>
+  <si>
+    <t>iOS: done
+Android: done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOS: done
+Android: done
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android: done
+iOS: in progress </t>
+  </si>
+  <si>
+    <t>Nhat nghien cuu push message tu Java</t>
+  </si>
+  <si>
+    <t>Open</t>
   </si>
 </sst>
 </file>
@@ -2165,7 +2184,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2286,7 +2305,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2341,6 +2359,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2380,9 +2401,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2392,8 +2410,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3870,26 +3893,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="2" max="2" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" style="7" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" style="7" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="7"/>
+    <col min="9" max="9" width="13.7109375" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
         <v>239</v>
       </c>
@@ -3897,7 +3921,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
         <v>7</v>
       </c>
@@ -3926,11 +3950,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="103">
         <v>1</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="108" t="s">
         <v>247</v>
       </c>
       <c r="C4" s="103" t="s">
@@ -3943,18 +3967,21 @@
         <v>249</v>
       </c>
       <c r="F4" s="103"/>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="104" t="s">
+      <c r="H4" s="144" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="I4" s="146" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="103">
         <v>2</v>
       </c>
-      <c r="B5" s="110"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="103" t="s">
         <v>252</v>
       </c>
@@ -3965,18 +3992,21 @@
         <v>249</v>
       </c>
       <c r="F5" s="103"/>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H5" s="101" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H5" s="145" t="s">
+        <v>251</v>
+      </c>
+      <c r="I5" s="146" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="103">
         <v>3</v>
       </c>
-      <c r="B6" s="110"/>
+      <c r="B6" s="109"/>
       <c r="C6" s="103" t="s">
         <v>255</v>
       </c>
@@ -3987,16 +4017,22 @@
         <v>249</v>
       </c>
       <c r="F6" s="103"/>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H6" s="101" t="s">
+      <c r="H6" s="145" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="I6" s="146" t="s">
+        <v>281</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="103"/>
-      <c r="B7" s="110"/>
+      <c r="B7" s="109"/>
       <c r="C7" s="103" t="s">
         <v>257</v>
       </c>
@@ -4007,16 +4043,17 @@
         <v>249</v>
       </c>
       <c r="F7" s="103"/>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H7" s="101" t="s">
+      <c r="H7" s="145" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="103"/>
-      <c r="B8" s="110"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="103" t="s">
         <v>259</v>
       </c>
@@ -4027,14 +4064,19 @@
         <v>249</v>
       </c>
       <c r="F8" s="103"/>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H8" s="101"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H8" s="145" t="s">
+        <v>254</v>
+      </c>
+      <c r="I8" s="146" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="103"/>
-      <c r="B9" s="110"/>
+      <c r="B9" s="109"/>
       <c r="C9" s="103" t="s">
         <v>261</v>
       </c>
@@ -4045,14 +4087,17 @@
         <v>249</v>
       </c>
       <c r="F9" s="103"/>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H9" s="101"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H9" s="145" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="103"/>
-      <c r="B10" s="110"/>
+      <c r="B10" s="109"/>
       <c r="C10" s="103" t="s">
         <v>263</v>
       </c>
@@ -4063,14 +4108,19 @@
         <v>249</v>
       </c>
       <c r="F10" s="103"/>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H10" s="101"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H10" s="145" t="s">
+        <v>254</v>
+      </c>
+      <c r="I10" s="146" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="103"/>
-      <c r="B11" s="110"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="103" t="s">
         <v>264</v>
       </c>
@@ -4081,14 +4131,17 @@
         <v>249</v>
       </c>
       <c r="F11" s="103"/>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H11" s="101"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H11" s="145" t="s">
+        <v>283</v>
+      </c>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="103"/>
-      <c r="B12" s="110"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="103" t="s">
         <v>266</v>
       </c>
@@ -4099,14 +4152,17 @@
         <v>249</v>
       </c>
       <c r="F12" s="103"/>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H12" s="101"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H12" s="145" t="s">
+        <v>283</v>
+      </c>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="103"/>
-      <c r="B13" s="111"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="103" t="s">
         <v>268</v>
       </c>
@@ -4117,150 +4173,204 @@
         <v>249</v>
       </c>
       <c r="F13" s="103"/>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H13" s="101"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H13" s="145" t="s">
+        <v>283</v>
+      </c>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="103"/>
       <c r="B14" s="103"/>
       <c r="C14" s="103"/>
       <c r="D14" s="103"/>
       <c r="E14" s="103"/>
       <c r="F14" s="103"/>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H14" s="101"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="H14" s="145" t="s">
+        <v>283</v>
+      </c>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="103"/>
       <c r="B15" s="103"/>
       <c r="C15" s="103"/>
       <c r="D15" s="103"/>
       <c r="E15" s="103"/>
       <c r="F15" s="103"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="103"/>
       <c r="B16" s="103"/>
       <c r="C16" s="103"/>
       <c r="D16" s="103"/>
       <c r="E16" s="103"/>
       <c r="F16" s="103"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="103"/>
       <c r="B17" s="103"/>
       <c r="C17" s="103"/>
       <c r="D17" s="103"/>
       <c r="E17" s="103"/>
       <c r="F17" s="103"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="103"/>
       <c r="B18" s="103"/>
       <c r="C18" s="103"/>
       <c r="D18" s="103"/>
       <c r="E18" s="103"/>
       <c r="F18" s="103"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="103"/>
       <c r="B19" s="103"/>
       <c r="C19" s="103"/>
       <c r="D19" s="103"/>
       <c r="E19" s="103"/>
       <c r="F19" s="103"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="103"/>
       <c r="B20" s="103"/>
       <c r="C20" s="103"/>
       <c r="D20" s="103"/>
       <c r="E20" s="103"/>
       <c r="F20" s="103"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="103"/>
       <c r="B21" s="103"/>
       <c r="C21" s="103"/>
       <c r="D21" s="103"/>
       <c r="E21" s="103"/>
       <c r="F21" s="103"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="103"/>
       <c r="B22" s="103"/>
       <c r="C22" s="103"/>
       <c r="D22" s="103"/>
       <c r="E22" s="103"/>
       <c r="F22" s="103"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="103"/>
       <c r="B23" s="103"/>
       <c r="C23" s="103"/>
       <c r="D23" s="103"/>
       <c r="E23" s="103"/>
       <c r="F23" s="103"/>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="103"/>
       <c r="B24" s="103"/>
       <c r="C24" s="103"/>
       <c r="D24" s="103"/>
       <c r="E24" s="103"/>
       <c r="F24" s="103"/>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="103"/>
       <c r="B25" s="103"/>
       <c r="C25" s="103"/>
       <c r="D25" s="103"/>
       <c r="E25" s="103"/>
       <c r="F25" s="103"/>
-    </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="103"/>
       <c r="B26" s="103"/>
       <c r="C26" s="103"/>
       <c r="D26" s="103"/>
       <c r="E26" s="103"/>
       <c r="F26" s="103"/>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="103"/>
       <c r="B27" s="103"/>
       <c r="C27" s="103"/>
       <c r="D27" s="103"/>
       <c r="E27" s="103"/>
       <c r="F27" s="103"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="103"/>
       <c r="B28" s="103"/>
       <c r="C28" s="103"/>
       <c r="D28" s="103"/>
       <c r="E28" s="103"/>
       <c r="F28" s="103"/>
-    </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="103"/>
       <c r="B29" s="103"/>
       <c r="C29" s="103"/>
       <c r="D29" s="103"/>
       <c r="E29" s="103"/>
       <c r="F29" s="103"/>
-    </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="103"/>
       <c r="B30" s="103"/>
       <c r="C30" s="103"/>
       <c r="D30" s="103"/>
       <c r="E30" s="103"/>
       <c r="F30" s="103"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5367,15 +5477,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -5874,10 +5984,10 @@
     </row>
     <row r="5" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="140" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="141"/>
+      <c r="D5" s="140"/>
       <c r="E5" s="137" t="s">
         <v>178</v>
       </c>
@@ -5910,16 +6020,16 @@
         <v>182</v>
       </c>
       <c r="D7" s="94"/>
-      <c r="E7" s="141" t="s">
+      <c r="E7" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
       <c r="M7" s="43"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5929,15 +6039,15 @@
       </c>
       <c r="D8" s="95"/>
       <c r="E8" s="95"/>
-      <c r="F8" s="142" t="s">
+      <c r="F8" s="141" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="142"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
       <c r="M8" s="44"/>
     </row>
     <row r="9" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6046,16 +6156,16 @@
     </row>
     <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="42"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="143"/>
-      <c r="L16" s="143"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
       <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6074,16 +6184,16 @@
     </row>
     <row r="18" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
       <c r="M18" s="45"/>
     </row>
     <row r="19" spans="1:21" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6131,15 +6241,15 @@
     <row r="22" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="42"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="140"/>
-      <c r="L22" s="140"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
       <c r="M22" s="45"/>
     </row>
     <row r="23" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6158,16 +6268,16 @@
     </row>
     <row r="24" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="42"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="140"/>
-      <c r="L24" s="140"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="143"/>
+      <c r="L24" s="143"/>
       <c r="M24" s="45"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -6879,6 +6989,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="C34:AS34"/>
     <mergeCell ref="E7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="E3:I3"/>
@@ -6886,11 +7001,6 @@
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="E5:L5"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="C34:AS34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6921,15 +7031,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -7432,196 +7542,196 @@
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
       <c r="K4" s="43"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
       <c r="K5" s="43"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
       <c r="K6" s="43"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="42"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
       <c r="K7" s="43"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="42"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
       <c r="K8" s="43"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="42"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
       <c r="K9" s="43"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="42"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
       <c r="K10" s="43"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="42"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
       <c r="K11" s="44"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="42"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
       <c r="K12" s="45"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
       <c r="K13" s="44"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
       <c r="K14" s="45"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
       <c r="K15" s="45"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="42"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
       <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B17" s="42"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
       <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
       <c r="K18" s="45"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B19" s="42"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
       <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
@@ -8350,15 +8460,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -8874,40 +8984,40 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
       <c r="K4" s="43"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
       <c r="K5" s="43"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
       <c r="K6" s="43"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -8953,11 +9063,11 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="119"/>
       <c r="K10" s="44"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8979,11 +9089,11 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="123"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="122"/>
       <c r="K12" s="44"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -9795,15 +9905,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -10283,10 +10393,10 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="124"/>
+      <c r="E4" s="123"/>
       <c r="F4" s="37" t="s">
         <v>18</v>
       </c>
@@ -10294,20 +10404,20 @@
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="124" t="s">
+      <c r="K4" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="124"/>
+      <c r="L4" s="123"/>
       <c r="M4" s="37" t="s">
         <v>18</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="124" t="s">
+      <c r="Q4" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="124"/>
+      <c r="R4" s="123"/>
       <c r="S4" s="37" t="s">
         <v>18</v>
       </c>
@@ -10510,14 +10620,14 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C18" s="106"/>
-      <c r="D18" s="108" t="s">
+      <c r="C18" s="105"/>
+      <c r="D18" s="107" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="34"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="108" t="s">
+      <c r="J18" s="105"/>
+      <c r="K18" s="107" t="s">
         <v>47</v>
       </c>
       <c r="L18" s="33"/>
@@ -10528,20 +10638,20 @@
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C19" s="106"/>
-      <c r="D19" s="108" t="s">
+      <c r="C19" s="105"/>
+      <c r="D19" s="107" t="s">
         <v>272</v>
       </c>
       <c r="E19" s="33"/>
-      <c r="F19" s="107" t="s">
+      <c r="F19" s="106" t="s">
         <v>273</v>
       </c>
-      <c r="J19" s="106"/>
-      <c r="K19" s="108" t="s">
+      <c r="J19" s="105"/>
+      <c r="K19" s="107" t="s">
         <v>272</v>
       </c>
       <c r="L19" s="33"/>
-      <c r="M19" s="107" t="s">
+      <c r="M19" s="106" t="s">
         <v>273</v>
       </c>
       <c r="P19" s="1"/>
@@ -10550,23 +10660,23 @@
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C20" s="125" t="s">
+      <c r="C20" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="107" t="s">
         <v>274</v>
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="34"/>
-      <c r="J20" s="125" t="s">
+      <c r="J20" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="108" t="s">
+      <c r="K20" s="107" t="s">
         <v>274</v>
       </c>
       <c r="L20" s="33"/>
       <c r="M20" s="34"/>
-      <c r="P20" s="125" t="s">
+      <c r="P20" s="124" t="s">
         <v>44</v>
       </c>
       <c r="Q20" s="33" t="s">
@@ -10576,7 +10686,7 @@
       <c r="S20" s="34"/>
     </row>
     <row r="21" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="126"/>
+      <c r="C21" s="125"/>
       <c r="D21" s="35" t="s">
         <v>45</v>
       </c>
@@ -10584,7 +10694,7 @@
       <c r="F21" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="J21" s="126"/>
+      <c r="J21" s="125"/>
       <c r="K21" s="35" t="s">
         <v>234</v>
       </c>
@@ -10592,7 +10702,7 @@
       <c r="M21" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="P21" s="126"/>
+      <c r="P21" s="125"/>
       <c r="Q21" s="35" t="s">
         <v>236</v>
       </c>
@@ -11258,7 +11368,7 @@
       <c r="B42" s="58">
         <v>11</v>
       </c>
-      <c r="C42" s="105" t="s">
+      <c r="C42" s="104" t="s">
         <v>270</v>
       </c>
       <c r="D42" s="2"/>
@@ -11309,7 +11419,7 @@
       <c r="B43" s="58">
         <v>12</v>
       </c>
-      <c r="C43" s="105" t="s">
+      <c r="C43" s="104" t="s">
         <v>271</v>
       </c>
       <c r="D43" s="2"/>
@@ -11450,15 +11560,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -12010,7 +12120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AS44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -12036,10 +12146,10 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="124"/>
+      <c r="E4" s="123"/>
       <c r="F4" s="37" t="s">
         <v>18</v>
       </c>
@@ -12061,14 +12171,14 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
       <c r="L6" s="96"/>
-      <c r="M6" s="144" t="s">
+      <c r="M6" s="126" t="s">
         <v>278</v>
       </c>
-      <c r="N6" s="144"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
       <c r="S6" s="97"/>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.25">
@@ -12265,7 +12375,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C20" s="125" t="s">
+      <c r="C20" s="124" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -12275,7 +12385,7 @@
       <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="126"/>
+      <c r="C21" s="125"/>
       <c r="D21" s="35" t="s">
         <v>45</v>
       </c>
@@ -13093,15 +13203,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">

--- a/trunk/WIP/Documents/Requirements/Mockup/Mobile/TaxiNet_ScreenDesign_DriverM.xlsx
+++ b/trunk/WIP/Documents/Requirements/Mockup/Mobile/TaxiNet_ScreenDesign_DriverM.xlsx
@@ -26,9 +26,13 @@
     <sheet name="06.CompanyInfo" sheetId="10" r:id="rId12"/>
     <sheet name="06.CompanyInfo Def" sheetId="11" r:id="rId13"/>
     <sheet name="Note" sheetId="2" r:id="rId14"/>
+    <sheet name="07. PromotionTrips" sheetId="18" r:id="rId15"/>
+    <sheet name="08. RegisterPromotionTrip" sheetId="16" r:id="rId16"/>
+    <sheet name="09. MyTrips" sheetId="17" r:id="rId17"/>
+    <sheet name="10. VIP Customers" sheetId="19" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="KindOfTaxi" localSheetId="1">'[1]KH - Tạo hành trình'!$I$16:$K$16</definedName>
@@ -46,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="321">
   <si>
     <t>Địa Điểm</t>
   </si>
@@ -1339,12 +1343,123 @@
   <si>
     <t>Open</t>
   </si>
+  <si>
+    <t>Số dư tài khoản: 50000VNĐ</t>
+  </si>
+  <si>
+    <t>PROMOTION TRIP</t>
+  </si>
+  <si>
+    <t>Điểm đi:</t>
+  </si>
+  <si>
+    <t>Thành Phố</t>
+  </si>
+  <si>
+    <t>Vị trí điểm đi</t>
+  </si>
+  <si>
+    <t>Vị trí điểm điến</t>
+  </si>
+  <si>
+    <t>MY TRIPS</t>
+  </si>
+  <si>
+    <t>Từ: Số 35, Xuân Đỉnh, Từ Liêm</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Sang</t>
+  </si>
+  <si>
+    <t>Đến: Số 33, Cầu Giấy, Từ Liêm, Hà Nội</t>
+  </si>
+  <si>
+    <t>Khách Quen</t>
+  </si>
+  <si>
+    <t>Nguyến Thị Thanh</t>
+  </si>
+  <si>
+    <t>Hôm Nay</t>
+  </si>
+  <si>
+    <t>Hai Ngày Trước</t>
+  </si>
+  <si>
+    <t>Ngày giờ:</t>
+  </si>
+  <si>
+    <t>PROMOTION TRIPS</t>
+  </si>
+  <si>
+    <t>Đến: Số 35, Xuân Đỉnh, Từ Liêm, Hà Nội</t>
+  </si>
+  <si>
+    <t>Từ: Số 35, Xuân Đỉnh, Từ Liêm, Hà Nội</t>
+  </si>
+  <si>
+    <t>Người đăng ký: Nguyến văn Thanh</t>
+  </si>
+  <si>
+    <t>Người đăng ký: Chưa có</t>
+  </si>
+  <si>
+    <t>Số người</t>
+  </si>
+  <si>
+    <t>Phí (VNĐ):</t>
+  </si>
+  <si>
+    <t>VIP RIDERS</t>
+  </si>
+  <si>
+    <t>1. thangnv@gmail.com   Nguyễn Văn Thắng</t>
+  </si>
+  <si>
+    <t>2. hath@gmail.com</t>
+  </si>
+  <si>
+    <t>Trần Thanh Hà</t>
+  </si>
+  <si>
+    <t>Khi người trượt (vuốt) sang trái thì hiển thị nút xóa được hiển thị nên bên phải. Nếu người dùng chạm (tap) vào nút Xóa, phần mềm hiển thị nút Xác Nhận và Hủy Bỏ</t>
+  </si>
+  <si>
+    <t>Đã Đóng</t>
+  </si>
+  <si>
+    <t>Đang Mở</t>
+  </si>
+  <si>
+    <t>10:20 Ngày 11-01-2015</t>
+  </si>
+  <si>
+    <t>10:20 Ngày 10-01-2015</t>
+  </si>
+  <si>
+    <t>UC0211</t>
+  </si>
+  <si>
+    <t>View Promotion Trips</t>
+  </si>
+  <si>
+    <t>UC0212</t>
+  </si>
+  <si>
+    <t>View VIP Riders</t>
+  </si>
+  <si>
+    <t>UC0213</t>
+  </si>
+  <si>
+    <t>Add Rider to VIP List</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1485,6 +1600,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1524,7 +1648,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -2178,13 +2302,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2311,6 +2446,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2401,6 +2541,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2410,13 +2553,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3599,6 +3816,261 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flowchart: Process 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304924" y="3914775"/>
+          <a:ext cx="2505075" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Đăng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Ký</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Flowchart: Process 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304924" y="3743325"/>
+          <a:ext cx="2505075" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Lưu</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="7-Point Star 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="2686050"/>
+          <a:ext cx="285750" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="star7">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="7-Point Star 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1552575" y="2352675"/>
+          <a:ext cx="285750" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="star7">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -3896,7 +4368,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3954,7 +4426,7 @@
       <c r="A4" s="103">
         <v>1</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="111" t="s">
         <v>247</v>
       </c>
       <c r="C4" s="103" t="s">
@@ -3970,10 +4442,10 @@
       <c r="G4" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="144" t="s">
+      <c r="H4" s="108" t="s">
         <v>251</v>
       </c>
-      <c r="I4" s="146" t="s">
+      <c r="I4" s="110" t="s">
         <v>279</v>
       </c>
     </row>
@@ -3981,7 +4453,7 @@
       <c r="A5" s="103">
         <v>2</v>
       </c>
-      <c r="B5" s="109"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="103" t="s">
         <v>252</v>
       </c>
@@ -3995,10 +4467,10 @@
       <c r="G5" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H5" s="145" t="s">
+      <c r="H5" s="109" t="s">
         <v>251</v>
       </c>
-      <c r="I5" s="146" t="s">
+      <c r="I5" s="110" t="s">
         <v>280</v>
       </c>
     </row>
@@ -4006,7 +4478,7 @@
       <c r="A6" s="103">
         <v>3</v>
       </c>
-      <c r="B6" s="109"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="103" t="s">
         <v>255</v>
       </c>
@@ -4020,10 +4492,10 @@
       <c r="G6" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H6" s="145" t="s">
+      <c r="H6" s="109" t="s">
         <v>254</v>
       </c>
-      <c r="I6" s="146" t="s">
+      <c r="I6" s="110" t="s">
         <v>281</v>
       </c>
       <c r="J6" s="7" t="s">
@@ -4032,7 +4504,7 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="103"/>
-      <c r="B7" s="109"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="103" t="s">
         <v>257</v>
       </c>
@@ -4046,14 +4518,14 @@
       <c r="G7" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H7" s="145" t="s">
+      <c r="H7" s="109" t="s">
         <v>254</v>
       </c>
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="103"/>
-      <c r="B8" s="109"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="103" t="s">
         <v>259</v>
       </c>
@@ -4067,16 +4539,16 @@
       <c r="G8" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H8" s="145" t="s">
+      <c r="H8" s="109" t="s">
         <v>254</v>
       </c>
-      <c r="I8" s="146" t="s">
+      <c r="I8" s="110" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="103"/>
-      <c r="B9" s="109"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="103" t="s">
         <v>261</v>
       </c>
@@ -4090,14 +4562,14 @@
       <c r="G9" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H9" s="145" t="s">
+      <c r="H9" s="109" t="s">
         <v>283</v>
       </c>
       <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="103"/>
-      <c r="B10" s="109"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="103" t="s">
         <v>263</v>
       </c>
@@ -4111,16 +4583,16 @@
       <c r="G10" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H10" s="145" t="s">
+      <c r="H10" s="109" t="s">
         <v>254</v>
       </c>
-      <c r="I10" s="146" t="s">
+      <c r="I10" s="110" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="103"/>
-      <c r="B11" s="109"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="103" t="s">
         <v>264</v>
       </c>
@@ -4134,14 +4606,14 @@
       <c r="G11" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H11" s="145" t="s">
+      <c r="H11" s="109" t="s">
         <v>283</v>
       </c>
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="103"/>
-      <c r="B12" s="109"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="103" t="s">
         <v>266</v>
       </c>
@@ -4155,14 +4627,14 @@
       <c r="G12" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H12" s="145" t="s">
+      <c r="H12" s="109" t="s">
         <v>283</v>
       </c>
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="103"/>
-      <c r="B13" s="110"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="103" t="s">
         <v>268</v>
       </c>
@@ -4176,7 +4648,7 @@
       <c r="G13" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H13" s="145" t="s">
+      <c r="H13" s="109" t="s">
         <v>283</v>
       </c>
       <c r="I13" s="16"/>
@@ -4184,14 +4656,20 @@
     <row r="14" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="103"/>
       <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
+      <c r="C14" s="103" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" s="103" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" s="103" t="s">
+        <v>249</v>
+      </c>
       <c r="F14" s="103"/>
       <c r="G14" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H14" s="145" t="s">
+      <c r="H14" s="109" t="s">
         <v>283</v>
       </c>
       <c r="I14" s="16"/>
@@ -4199,23 +4677,43 @@
     <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="103"/>
       <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
+      <c r="C15" s="103" t="s">
+        <v>317</v>
+      </c>
+      <c r="D15" s="103" t="s">
+        <v>318</v>
+      </c>
+      <c r="E15" s="103" t="s">
+        <v>249</v>
+      </c>
       <c r="F15" s="103"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="G15" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>283</v>
+      </c>
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="103"/>
       <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
+      <c r="C16" s="103" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" s="103" t="s">
+        <v>320</v>
+      </c>
+      <c r="E16" s="103" t="s">
+        <v>249</v>
+      </c>
       <c r="F16" s="103"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="G16" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>283</v>
+      </c>
       <c r="I16" s="16"/>
     </row>
     <row r="17" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
@@ -4385,7 +4883,7 @@
   <dimension ref="A2:AS43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4437,19 +4935,19 @@
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
-      <c r="E3" s="134" t="s">
+      <c r="E3" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134" t="s">
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="135"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="138"/>
     </row>
     <row r="4" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
@@ -4467,27 +4965,27 @@
     </row>
     <row r="5" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="139" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
       <c r="F5" s="77"/>
-      <c r="G5" s="137" t="s">
+      <c r="G5" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
       <c r="M5" s="43"/>
     </row>
     <row r="6" spans="2:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
       <c r="F6" s="77"/>
       <c r="G6" s="77"/>
       <c r="H6" s="77"/>
@@ -4499,18 +4997,18 @@
     </row>
     <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="42"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
       <c r="F7" s="46"/>
-      <c r="G7" s="138" t="s">
+      <c r="G7" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
       <c r="M7" s="43"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -4605,9 +5103,11 @@
       <c r="L13" s="83"/>
       <c r="M13" s="45"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
-      <c r="C14" s="84"/>
+      <c r="C14" s="84" t="s">
+        <v>284</v>
+      </c>
       <c r="D14" s="85"/>
       <c r="E14" s="85"/>
       <c r="F14" s="85"/>
@@ -4682,17 +5182,17 @@
       <c r="C19" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="128"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="131"/>
       <c r="M19" s="45"/>
     </row>
     <row r="20" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4700,33 +5200,33 @@
       <c r="C20" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="129" t="s">
+      <c r="D20" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="130"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="133"/>
       <c r="M20" s="43"/>
     </row>
     <row r="21" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="42"/>
-      <c r="C21" s="139" t="s">
+      <c r="C21" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="128"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="131"/>
       <c r="M21" s="45"/>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.25">
@@ -4838,51 +5338,51 @@
       <c r="B31" s="58">
         <v>1</v>
       </c>
-      <c r="C31" s="131" t="s">
+      <c r="C31" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="132"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="132"/>
-      <c r="Q31" s="132"/>
-      <c r="R31" s="132"/>
-      <c r="S31" s="132"/>
-      <c r="T31" s="132"/>
-      <c r="U31" s="132"/>
-      <c r="V31" s="132"/>
-      <c r="W31" s="132"/>
-      <c r="X31" s="132"/>
-      <c r="Y31" s="132"/>
-      <c r="Z31" s="132"/>
-      <c r="AA31" s="132"/>
-      <c r="AB31" s="132"/>
-      <c r="AC31" s="132"/>
-      <c r="AD31" s="132"/>
-      <c r="AE31" s="132"/>
-      <c r="AF31" s="132"/>
-      <c r="AG31" s="132"/>
-      <c r="AH31" s="132"/>
-      <c r="AI31" s="132"/>
-      <c r="AJ31" s="132"/>
-      <c r="AK31" s="132"/>
-      <c r="AL31" s="132"/>
-      <c r="AM31" s="132"/>
-      <c r="AN31" s="132"/>
-      <c r="AO31" s="132"/>
-      <c r="AP31" s="132"/>
-      <c r="AQ31" s="132"/>
-      <c r="AR31" s="132"/>
-      <c r="AS31" s="133"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="135"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="135"/>
+      <c r="Q31" s="135"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="135"/>
+      <c r="AA31" s="135"/>
+      <c r="AB31" s="135"/>
+      <c r="AC31" s="135"/>
+      <c r="AD31" s="135"/>
+      <c r="AE31" s="135"/>
+      <c r="AF31" s="135"/>
+      <c r="AG31" s="135"/>
+      <c r="AH31" s="135"/>
+      <c r="AI31" s="135"/>
+      <c r="AJ31" s="135"/>
+      <c r="AK31" s="135"/>
+      <c r="AL31" s="135"/>
+      <c r="AM31" s="135"/>
+      <c r="AN31" s="135"/>
+      <c r="AO31" s="135"/>
+      <c r="AP31" s="135"/>
+      <c r="AQ31" s="135"/>
+      <c r="AR31" s="135"/>
+      <c r="AS31" s="136"/>
     </row>
     <row r="32" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50"/>
@@ -5477,15 +5977,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="117"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -5903,8 +6403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AS46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5956,17 +6456,17 @@
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
-      <c r="E3" s="134" t="s">
+      <c r="E3" s="137" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="135"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="138"/>
     </row>
     <row r="4" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
@@ -5984,20 +6484,20 @@
     </row>
     <row r="5" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="144" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="137" t="s">
+      <c r="D5" s="144"/>
+      <c r="E5" s="140" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="137"/>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
       <c r="M5" s="43"/>
     </row>
     <row r="6" spans="2:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6020,16 +6520,16 @@
         <v>182</v>
       </c>
       <c r="D7" s="94"/>
-      <c r="E7" s="140" t="s">
+      <c r="E7" s="144" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
       <c r="M7" s="43"/>
     </row>
     <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -6039,15 +6539,15 @@
       </c>
       <c r="D8" s="95"/>
       <c r="E8" s="95"/>
-      <c r="F8" s="141" t="s">
+      <c r="F8" s="145" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
       <c r="M8" s="44"/>
     </row>
     <row r="9" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6128,7 +6628,7 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6156,16 +6656,16 @@
     </row>
     <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="42"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="146"/>
+      <c r="L16" s="146"/>
       <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6255,15 +6755,15 @@
     <row r="23" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="42"/>
       <c r="C23" s="46"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="138"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="138"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
       <c r="M23" s="43"/>
     </row>
     <row r="24" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6389,51 +6889,51 @@
       <c r="B34" s="58">
         <v>1</v>
       </c>
-      <c r="C34" s="131" t="s">
+      <c r="C34" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="132"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="132"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="132"/>
-      <c r="L34" s="132"/>
-      <c r="M34" s="132"/>
-      <c r="N34" s="132"/>
-      <c r="O34" s="132"/>
-      <c r="P34" s="132"/>
-      <c r="Q34" s="132"/>
-      <c r="R34" s="132"/>
-      <c r="S34" s="132"/>
-      <c r="T34" s="132"/>
-      <c r="U34" s="132"/>
-      <c r="V34" s="132"/>
-      <c r="W34" s="132"/>
-      <c r="X34" s="132"/>
-      <c r="Y34" s="132"/>
-      <c r="Z34" s="132"/>
-      <c r="AA34" s="132"/>
-      <c r="AB34" s="132"/>
-      <c r="AC34" s="132"/>
-      <c r="AD34" s="132"/>
-      <c r="AE34" s="132"/>
-      <c r="AF34" s="132"/>
-      <c r="AG34" s="132"/>
-      <c r="AH34" s="132"/>
-      <c r="AI34" s="132"/>
-      <c r="AJ34" s="132"/>
-      <c r="AK34" s="132"/>
-      <c r="AL34" s="132"/>
-      <c r="AM34" s="132"/>
-      <c r="AN34" s="132"/>
-      <c r="AO34" s="132"/>
-      <c r="AP34" s="132"/>
-      <c r="AQ34" s="132"/>
-      <c r="AR34" s="132"/>
-      <c r="AS34" s="133"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="135"/>
+      <c r="J34" s="135"/>
+      <c r="K34" s="135"/>
+      <c r="L34" s="135"/>
+      <c r="M34" s="135"/>
+      <c r="N34" s="135"/>
+      <c r="O34" s="135"/>
+      <c r="P34" s="135"/>
+      <c r="Q34" s="135"/>
+      <c r="R34" s="135"/>
+      <c r="S34" s="135"/>
+      <c r="T34" s="135"/>
+      <c r="U34" s="135"/>
+      <c r="V34" s="135"/>
+      <c r="W34" s="135"/>
+      <c r="X34" s="135"/>
+      <c r="Y34" s="135"/>
+      <c r="Z34" s="135"/>
+      <c r="AA34" s="135"/>
+      <c r="AB34" s="135"/>
+      <c r="AC34" s="135"/>
+      <c r="AD34" s="135"/>
+      <c r="AE34" s="135"/>
+      <c r="AF34" s="135"/>
+      <c r="AG34" s="135"/>
+      <c r="AH34" s="135"/>
+      <c r="AI34" s="135"/>
+      <c r="AJ34" s="135"/>
+      <c r="AK34" s="135"/>
+      <c r="AL34" s="135"/>
+      <c r="AM34" s="135"/>
+      <c r="AN34" s="135"/>
+      <c r="AO34" s="135"/>
+      <c r="AP34" s="135"/>
+      <c r="AQ34" s="135"/>
+      <c r="AR34" s="135"/>
+      <c r="AS34" s="136"/>
     </row>
     <row r="35" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50"/>
@@ -6989,11 +7489,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="C34:AS34"/>
     <mergeCell ref="E7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="E3:I3"/>
@@ -7001,6 +7496,11 @@
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="E5:L5"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="C34:AS34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7031,15 +7531,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="117"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -7458,7 +7958,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7473,6 +7973,4561 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AS45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" customWidth="1"/>
+    <col min="16" max="16" width="5" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="126" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="126"/>
+      <c r="F4" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C5" s="158" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="184" t="s">
+        <v>312</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="157"/>
+      <c r="P6" s="157"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C8" s="66" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C9" s="158" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="184" t="s">
+        <v>311</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C12" s="66" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="155"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C21" s="150"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="147"/>
+    </row>
+    <row r="22" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="151"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="149"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="30" spans="1:45" s="53" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="50"/>
+      <c r="B30" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30" s="52"/>
+      <c r="T30"/>
+      <c r="U30" s="52"/>
+    </row>
+    <row r="31" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
+      <c r="B31" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="55"/>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="55"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="55"/>
+      <c r="AO31" s="55"/>
+      <c r="AP31" s="55"/>
+      <c r="AQ31" s="55"/>
+      <c r="AR31" s="55"/>
+      <c r="AS31" s="57"/>
+    </row>
+    <row r="32" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
+      <c r="B32" s="58">
+        <v>1</v>
+      </c>
+      <c r="C32" s="91" t="s">
+        <v>310</v>
+      </c>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="81"/>
+      <c r="T32" s="81"/>
+      <c r="U32" s="81"/>
+      <c r="V32" s="81"/>
+      <c r="W32" s="81"/>
+      <c r="X32" s="81"/>
+      <c r="Y32" s="81"/>
+      <c r="Z32" s="81"/>
+      <c r="AA32" s="81"/>
+      <c r="AB32" s="81"/>
+      <c r="AC32" s="81"/>
+      <c r="AD32" s="81"/>
+      <c r="AE32" s="81"/>
+      <c r="AF32" s="81"/>
+      <c r="AG32" s="81"/>
+      <c r="AH32" s="81"/>
+      <c r="AI32" s="81"/>
+      <c r="AJ32" s="81"/>
+      <c r="AK32" s="81"/>
+      <c r="AL32" s="81"/>
+      <c r="AM32" s="81"/>
+      <c r="AN32" s="81"/>
+      <c r="AO32" s="81"/>
+      <c r="AP32" s="81"/>
+      <c r="AQ32" s="81"/>
+      <c r="AR32" s="81"/>
+      <c r="AS32" s="90"/>
+    </row>
+    <row r="33" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
+      <c r="B33" s="61">
+        <v>2</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="59"/>
+      <c r="AG33" s="59"/>
+      <c r="AH33" s="59"/>
+      <c r="AI33" s="59"/>
+      <c r="AJ33" s="59"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="59"/>
+      <c r="AM33" s="59"/>
+      <c r="AN33" s="59"/>
+      <c r="AO33" s="59"/>
+      <c r="AP33" s="59"/>
+      <c r="AQ33" s="59"/>
+      <c r="AR33" s="59"/>
+      <c r="AS33" s="60"/>
+    </row>
+    <row r="34" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="64"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="59"/>
+      <c r="AJ34" s="59"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="59"/>
+      <c r="AO34" s="59"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="59"/>
+      <c r="AR34" s="59"/>
+      <c r="AS34" s="60"/>
+    </row>
+    <row r="35" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="64"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="59"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="59"/>
+      <c r="AK35" s="59"/>
+      <c r="AL35" s="59"/>
+      <c r="AM35" s="59"/>
+      <c r="AN35" s="59"/>
+      <c r="AO35" s="59"/>
+      <c r="AP35" s="59"/>
+      <c r="AQ35" s="59"/>
+      <c r="AR35" s="59"/>
+      <c r="AS35" s="60"/>
+    </row>
+    <row r="36" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="64"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="59"/>
+      <c r="AF36" s="59"/>
+      <c r="AG36" s="59"/>
+      <c r="AH36" s="59"/>
+      <c r="AI36" s="59"/>
+      <c r="AJ36" s="59"/>
+      <c r="AK36" s="59"/>
+      <c r="AL36" s="59"/>
+      <c r="AM36" s="59"/>
+      <c r="AN36" s="59"/>
+      <c r="AO36" s="59"/>
+      <c r="AP36" s="59"/>
+      <c r="AQ36" s="59"/>
+      <c r="AR36" s="59"/>
+      <c r="AS36" s="60"/>
+    </row>
+    <row r="37" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="50"/>
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" s="65"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59"/>
+      <c r="AF37" s="59"/>
+      <c r="AG37" s="59"/>
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="59"/>
+      <c r="AK37" s="59"/>
+      <c r="AL37" s="59"/>
+      <c r="AM37" s="59"/>
+      <c r="AN37" s="59"/>
+      <c r="AO37" s="59"/>
+      <c r="AP37" s="59"/>
+      <c r="AQ37" s="59"/>
+      <c r="AR37" s="59"/>
+      <c r="AS37" s="60"/>
+    </row>
+    <row r="38" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
+      <c r="B38" s="67">
+        <v>6</v>
+      </c>
+      <c r="C38" s="65"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59"/>
+      <c r="AF38" s="59"/>
+      <c r="AG38" s="59"/>
+      <c r="AH38" s="59"/>
+      <c r="AI38" s="59"/>
+      <c r="AJ38" s="59"/>
+      <c r="AK38" s="59"/>
+      <c r="AL38" s="59"/>
+      <c r="AM38" s="59"/>
+      <c r="AN38" s="59"/>
+      <c r="AO38" s="59"/>
+      <c r="AP38" s="59"/>
+      <c r="AQ38" s="59"/>
+      <c r="AR38" s="59"/>
+      <c r="AS38" s="60"/>
+    </row>
+    <row r="39" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+      <c r="B39" s="1">
+        <v>7</v>
+      </c>
+      <c r="C39" s="65"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="59"/>
+      <c r="AF39" s="59"/>
+      <c r="AG39" s="59"/>
+      <c r="AH39" s="59"/>
+      <c r="AI39" s="59"/>
+      <c r="AJ39" s="59"/>
+      <c r="AK39" s="59"/>
+      <c r="AL39" s="59"/>
+      <c r="AM39" s="59"/>
+      <c r="AN39" s="59"/>
+      <c r="AO39" s="59"/>
+      <c r="AP39" s="59"/>
+      <c r="AQ39" s="59"/>
+      <c r="AR39" s="59"/>
+      <c r="AS39" s="60"/>
+    </row>
+    <row r="40" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="50"/>
+      <c r="B40" s="58">
+        <v>8</v>
+      </c>
+      <c r="C40" s="92"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59"/>
+      <c r="AF40" s="59"/>
+      <c r="AG40" s="59"/>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="59"/>
+      <c r="AM40" s="59"/>
+      <c r="AN40" s="59"/>
+      <c r="AO40" s="59"/>
+      <c r="AP40" s="59"/>
+      <c r="AQ40" s="59"/>
+      <c r="AR40" s="59"/>
+      <c r="AS40" s="60"/>
+    </row>
+    <row r="41" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="50"/>
+      <c r="B41" s="58">
+        <v>9</v>
+      </c>
+      <c r="C41" s="92"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="59"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="59"/>
+      <c r="Y41" s="59"/>
+      <c r="Z41" s="59"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="59"/>
+      <c r="AF41" s="59"/>
+      <c r="AG41" s="59"/>
+      <c r="AH41" s="59"/>
+      <c r="AI41" s="59"/>
+      <c r="AJ41" s="59"/>
+      <c r="AK41" s="59"/>
+      <c r="AL41" s="59"/>
+      <c r="AM41" s="59"/>
+      <c r="AN41" s="59"/>
+      <c r="AO41" s="59"/>
+      <c r="AP41" s="59"/>
+      <c r="AQ41" s="59"/>
+      <c r="AR41" s="59"/>
+      <c r="AS41" s="60"/>
+    </row>
+    <row r="42" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="50"/>
+      <c r="B42" s="58">
+        <v>10</v>
+      </c>
+      <c r="C42" s="92"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="59"/>
+      <c r="Z42" s="59"/>
+      <c r="AA42" s="59"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="59"/>
+      <c r="AD42" s="59"/>
+      <c r="AE42" s="59"/>
+      <c r="AF42" s="59"/>
+      <c r="AG42" s="59"/>
+      <c r="AH42" s="59"/>
+      <c r="AI42" s="59"/>
+      <c r="AJ42" s="59"/>
+      <c r="AK42" s="59"/>
+      <c r="AL42" s="59"/>
+      <c r="AM42" s="59"/>
+      <c r="AN42" s="59"/>
+      <c r="AO42" s="59"/>
+      <c r="AP42" s="59"/>
+      <c r="AQ42" s="59"/>
+      <c r="AR42" s="59"/>
+      <c r="AS42" s="60"/>
+    </row>
+    <row r="43" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="50"/>
+      <c r="B43" s="58">
+        <v>11</v>
+      </c>
+      <c r="C43" s="92"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="59"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="59"/>
+      <c r="V43" s="59"/>
+      <c r="W43" s="59"/>
+      <c r="X43" s="59"/>
+      <c r="Y43" s="59"/>
+      <c r="Z43" s="59"/>
+      <c r="AA43" s="59"/>
+      <c r="AB43" s="59"/>
+      <c r="AC43" s="59"/>
+      <c r="AD43" s="59"/>
+      <c r="AE43" s="59"/>
+      <c r="AF43" s="59"/>
+      <c r="AG43" s="59"/>
+      <c r="AH43" s="59"/>
+      <c r="AI43" s="59"/>
+      <c r="AJ43" s="59"/>
+      <c r="AK43" s="59"/>
+      <c r="AL43" s="59"/>
+      <c r="AM43" s="59"/>
+      <c r="AN43" s="59"/>
+      <c r="AO43" s="59"/>
+      <c r="AP43" s="59"/>
+      <c r="AQ43" s="59"/>
+      <c r="AR43" s="59"/>
+      <c r="AS43" s="60"/>
+    </row>
+    <row r="44" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="50"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="59"/>
+      <c r="V44" s="59"/>
+      <c r="W44" s="59"/>
+      <c r="X44" s="59"/>
+      <c r="Y44" s="59"/>
+      <c r="Z44" s="59"/>
+      <c r="AA44" s="59"/>
+      <c r="AB44" s="59"/>
+      <c r="AC44" s="59"/>
+      <c r="AD44" s="59"/>
+      <c r="AE44" s="59"/>
+      <c r="AF44" s="59"/>
+      <c r="AG44" s="59"/>
+      <c r="AH44" s="59"/>
+      <c r="AI44" s="59"/>
+      <c r="AJ44" s="59"/>
+      <c r="AK44" s="59"/>
+      <c r="AL44" s="59"/>
+      <c r="AM44" s="59"/>
+      <c r="AN44" s="59"/>
+      <c r="AO44" s="59"/>
+      <c r="AP44" s="59"/>
+      <c r="AQ44" s="59"/>
+      <c r="AR44" s="59"/>
+      <c r="AS44" s="60"/>
+    </row>
+    <row r="45" spans="1:45" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="50"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="69"/>
+      <c r="R45" s="69"/>
+      <c r="S45" s="70"/>
+      <c r="T45" s="70"/>
+      <c r="U45" s="70"/>
+      <c r="V45" s="70"/>
+      <c r="W45" s="70"/>
+      <c r="X45" s="70"/>
+      <c r="Y45" s="70"/>
+      <c r="Z45" s="70"/>
+      <c r="AA45" s="70"/>
+      <c r="AB45" s="70"/>
+      <c r="AC45" s="70"/>
+      <c r="AD45" s="70"/>
+      <c r="AE45" s="70"/>
+      <c r="AF45" s="70"/>
+      <c r="AG45" s="70"/>
+      <c r="AH45" s="70"/>
+      <c r="AI45" s="70"/>
+      <c r="AJ45" s="70"/>
+      <c r="AK45" s="70"/>
+      <c r="AL45" s="70"/>
+      <c r="AM45" s="70"/>
+      <c r="AN45" s="70"/>
+      <c r="AO45" s="70"/>
+      <c r="AP45" s="70"/>
+      <c r="AQ45" s="70"/>
+      <c r="AR45" s="70"/>
+      <c r="AS45" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="M6:R6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AT45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" customWidth="1"/>
+    <col min="10" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" customWidth="1"/>
+    <col min="15" max="15" width="5.28515625" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" customWidth="1"/>
+    <col min="17" max="17" width="5" customWidth="1"/>
+    <col min="18" max="18" width="4.140625" customWidth="1"/>
+    <col min="19" max="19" width="5.28515625" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="179" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="179"/>
+      <c r="F4" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="180"/>
+      <c r="H4" s="38"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C5" s="152" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="170"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="3"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="142" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="130"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="3"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="157"/>
+      <c r="P6" s="157"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="157"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C7" s="152" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="142" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="130"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C8" s="152"/>
+      <c r="D8" s="167" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="171"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="3"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C9" s="152" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="176">
+        <v>2</v>
+      </c>
+      <c r="E9" s="177"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="3"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C10" s="152" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="165"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="3"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C11" s="152" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="173">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="174"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="3"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C12" s="154"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="155"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="C21" s="150"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="147"/>
+    </row>
+    <row r="22" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="151"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="149"/>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="30" spans="1:46" s="53" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="50"/>
+      <c r="B30" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30" s="52"/>
+      <c r="U30"/>
+      <c r="V30" s="52"/>
+    </row>
+    <row r="31" spans="1:46" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
+      <c r="B31" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="55"/>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="55"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="55"/>
+      <c r="AO31" s="55"/>
+      <c r="AP31" s="55"/>
+      <c r="AQ31" s="55"/>
+      <c r="AR31" s="55"/>
+      <c r="AS31" s="55"/>
+      <c r="AT31" s="57"/>
+    </row>
+    <row r="32" spans="1:46" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
+      <c r="B32" s="58">
+        <v>1</v>
+      </c>
+      <c r="C32" s="91"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="81"/>
+      <c r="T32" s="81"/>
+      <c r="U32" s="81"/>
+      <c r="V32" s="81"/>
+      <c r="W32" s="81"/>
+      <c r="X32" s="81"/>
+      <c r="Y32" s="81"/>
+      <c r="Z32" s="81"/>
+      <c r="AA32" s="81"/>
+      <c r="AB32" s="81"/>
+      <c r="AC32" s="81"/>
+      <c r="AD32" s="81"/>
+      <c r="AE32" s="81"/>
+      <c r="AF32" s="81"/>
+      <c r="AG32" s="81"/>
+      <c r="AH32" s="81"/>
+      <c r="AI32" s="81"/>
+      <c r="AJ32" s="81"/>
+      <c r="AK32" s="81"/>
+      <c r="AL32" s="81"/>
+      <c r="AM32" s="81"/>
+      <c r="AN32" s="81"/>
+      <c r="AO32" s="81"/>
+      <c r="AP32" s="81"/>
+      <c r="AQ32" s="81"/>
+      <c r="AR32" s="81"/>
+      <c r="AS32" s="81"/>
+      <c r="AT32" s="90"/>
+    </row>
+    <row r="33" spans="1:46" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
+      <c r="B33" s="61">
+        <v>2</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="59"/>
+      <c r="AG33" s="59"/>
+      <c r="AH33" s="59"/>
+      <c r="AI33" s="59"/>
+      <c r="AJ33" s="59"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="59"/>
+      <c r="AM33" s="59"/>
+      <c r="AN33" s="59"/>
+      <c r="AO33" s="59"/>
+      <c r="AP33" s="59"/>
+      <c r="AQ33" s="59"/>
+      <c r="AR33" s="59"/>
+      <c r="AS33" s="59"/>
+      <c r="AT33" s="60"/>
+    </row>
+    <row r="34" spans="1:46" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="64"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="59"/>
+      <c r="AJ34" s="59"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="59"/>
+      <c r="AO34" s="59"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="59"/>
+      <c r="AR34" s="59"/>
+      <c r="AS34" s="59"/>
+      <c r="AT34" s="60"/>
+    </row>
+    <row r="35" spans="1:46" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="64"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="59"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="59"/>
+      <c r="AK35" s="59"/>
+      <c r="AL35" s="59"/>
+      <c r="AM35" s="59"/>
+      <c r="AN35" s="59"/>
+      <c r="AO35" s="59"/>
+      <c r="AP35" s="59"/>
+      <c r="AQ35" s="59"/>
+      <c r="AR35" s="59"/>
+      <c r="AS35" s="59"/>
+      <c r="AT35" s="60"/>
+    </row>
+    <row r="36" spans="1:46" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="64"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="59"/>
+      <c r="AF36" s="59"/>
+      <c r="AG36" s="59"/>
+      <c r="AH36" s="59"/>
+      <c r="AI36" s="59"/>
+      <c r="AJ36" s="59"/>
+      <c r="AK36" s="59"/>
+      <c r="AL36" s="59"/>
+      <c r="AM36" s="59"/>
+      <c r="AN36" s="59"/>
+      <c r="AO36" s="59"/>
+      <c r="AP36" s="59"/>
+      <c r="AQ36" s="59"/>
+      <c r="AR36" s="59"/>
+      <c r="AS36" s="59"/>
+      <c r="AT36" s="60"/>
+    </row>
+    <row r="37" spans="1:46" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="50"/>
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" s="65"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59"/>
+      <c r="AF37" s="59"/>
+      <c r="AG37" s="59"/>
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="59"/>
+      <c r="AK37" s="59"/>
+      <c r="AL37" s="59"/>
+      <c r="AM37" s="59"/>
+      <c r="AN37" s="59"/>
+      <c r="AO37" s="59"/>
+      <c r="AP37" s="59"/>
+      <c r="AQ37" s="59"/>
+      <c r="AR37" s="59"/>
+      <c r="AS37" s="59"/>
+      <c r="AT37" s="60"/>
+    </row>
+    <row r="38" spans="1:46" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
+      <c r="B38" s="67">
+        <v>6</v>
+      </c>
+      <c r="C38" s="65"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59"/>
+      <c r="AF38" s="59"/>
+      <c r="AG38" s="59"/>
+      <c r="AH38" s="59"/>
+      <c r="AI38" s="59"/>
+      <c r="AJ38" s="59"/>
+      <c r="AK38" s="59"/>
+      <c r="AL38" s="59"/>
+      <c r="AM38" s="59"/>
+      <c r="AN38" s="59"/>
+      <c r="AO38" s="59"/>
+      <c r="AP38" s="59"/>
+      <c r="AQ38" s="59"/>
+      <c r="AR38" s="59"/>
+      <c r="AS38" s="59"/>
+      <c r="AT38" s="60"/>
+    </row>
+    <row r="39" spans="1:46" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+      <c r="B39" s="1">
+        <v>7</v>
+      </c>
+      <c r="C39" s="65"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="59"/>
+      <c r="AF39" s="59"/>
+      <c r="AG39" s="59"/>
+      <c r="AH39" s="59"/>
+      <c r="AI39" s="59"/>
+      <c r="AJ39" s="59"/>
+      <c r="AK39" s="59"/>
+      <c r="AL39" s="59"/>
+      <c r="AM39" s="59"/>
+      <c r="AN39" s="59"/>
+      <c r="AO39" s="59"/>
+      <c r="AP39" s="59"/>
+      <c r="AQ39" s="59"/>
+      <c r="AR39" s="59"/>
+      <c r="AS39" s="59"/>
+      <c r="AT39" s="60"/>
+    </row>
+    <row r="40" spans="1:46" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="50"/>
+      <c r="B40" s="58">
+        <v>8</v>
+      </c>
+      <c r="C40" s="92"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59"/>
+      <c r="AF40" s="59"/>
+      <c r="AG40" s="59"/>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="59"/>
+      <c r="AM40" s="59"/>
+      <c r="AN40" s="59"/>
+      <c r="AO40" s="59"/>
+      <c r="AP40" s="59"/>
+      <c r="AQ40" s="59"/>
+      <c r="AR40" s="59"/>
+      <c r="AS40" s="59"/>
+      <c r="AT40" s="60"/>
+    </row>
+    <row r="41" spans="1:46" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="50"/>
+      <c r="B41" s="58">
+        <v>9</v>
+      </c>
+      <c r="C41" s="92"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="59"/>
+      <c r="Y41" s="59"/>
+      <c r="Z41" s="59"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="59"/>
+      <c r="AF41" s="59"/>
+      <c r="AG41" s="59"/>
+      <c r="AH41" s="59"/>
+      <c r="AI41" s="59"/>
+      <c r="AJ41" s="59"/>
+      <c r="AK41" s="59"/>
+      <c r="AL41" s="59"/>
+      <c r="AM41" s="59"/>
+      <c r="AN41" s="59"/>
+      <c r="AO41" s="59"/>
+      <c r="AP41" s="59"/>
+      <c r="AQ41" s="59"/>
+      <c r="AR41" s="59"/>
+      <c r="AS41" s="59"/>
+      <c r="AT41" s="60"/>
+    </row>
+    <row r="42" spans="1:46" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="50"/>
+      <c r="B42" s="58">
+        <v>10</v>
+      </c>
+      <c r="C42" s="92"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="59"/>
+      <c r="Z42" s="59"/>
+      <c r="AA42" s="59"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="59"/>
+      <c r="AD42" s="59"/>
+      <c r="AE42" s="59"/>
+      <c r="AF42" s="59"/>
+      <c r="AG42" s="59"/>
+      <c r="AH42" s="59"/>
+      <c r="AI42" s="59"/>
+      <c r="AJ42" s="59"/>
+      <c r="AK42" s="59"/>
+      <c r="AL42" s="59"/>
+      <c r="AM42" s="59"/>
+      <c r="AN42" s="59"/>
+      <c r="AO42" s="59"/>
+      <c r="AP42" s="59"/>
+      <c r="AQ42" s="59"/>
+      <c r="AR42" s="59"/>
+      <c r="AS42" s="59"/>
+      <c r="AT42" s="60"/>
+    </row>
+    <row r="43" spans="1:46" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="50"/>
+      <c r="B43" s="58">
+        <v>11</v>
+      </c>
+      <c r="C43" s="92"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="59"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="59"/>
+      <c r="W43" s="59"/>
+      <c r="X43" s="59"/>
+      <c r="Y43" s="59"/>
+      <c r="Z43" s="59"/>
+      <c r="AA43" s="59"/>
+      <c r="AB43" s="59"/>
+      <c r="AC43" s="59"/>
+      <c r="AD43" s="59"/>
+      <c r="AE43" s="59"/>
+      <c r="AF43" s="59"/>
+      <c r="AG43" s="59"/>
+      <c r="AH43" s="59"/>
+      <c r="AI43" s="59"/>
+      <c r="AJ43" s="59"/>
+      <c r="AK43" s="59"/>
+      <c r="AL43" s="59"/>
+      <c r="AM43" s="59"/>
+      <c r="AN43" s="59"/>
+      <c r="AO43" s="59"/>
+      <c r="AP43" s="59"/>
+      <c r="AQ43" s="59"/>
+      <c r="AR43" s="59"/>
+      <c r="AS43" s="59"/>
+      <c r="AT43" s="60"/>
+    </row>
+    <row r="44" spans="1:46" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="50"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="59"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="59"/>
+      <c r="W44" s="59"/>
+      <c r="X44" s="59"/>
+      <c r="Y44" s="59"/>
+      <c r="Z44" s="59"/>
+      <c r="AA44" s="59"/>
+      <c r="AB44" s="59"/>
+      <c r="AC44" s="59"/>
+      <c r="AD44" s="59"/>
+      <c r="AE44" s="59"/>
+      <c r="AF44" s="59"/>
+      <c r="AG44" s="59"/>
+      <c r="AH44" s="59"/>
+      <c r="AI44" s="59"/>
+      <c r="AJ44" s="59"/>
+      <c r="AK44" s="59"/>
+      <c r="AL44" s="59"/>
+      <c r="AM44" s="59"/>
+      <c r="AN44" s="59"/>
+      <c r="AO44" s="59"/>
+      <c r="AP44" s="59"/>
+      <c r="AQ44" s="59"/>
+      <c r="AR44" s="59"/>
+      <c r="AS44" s="59"/>
+      <c r="AT44" s="60"/>
+    </row>
+    <row r="45" spans="1:46" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="50"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="69"/>
+      <c r="R45" s="69"/>
+      <c r="S45" s="69"/>
+      <c r="T45" s="70"/>
+      <c r="U45" s="70"/>
+      <c r="V45" s="70"/>
+      <c r="W45" s="70"/>
+      <c r="X45" s="70"/>
+      <c r="Y45" s="70"/>
+      <c r="Z45" s="70"/>
+      <c r="AA45" s="70"/>
+      <c r="AB45" s="70"/>
+      <c r="AC45" s="70"/>
+      <c r="AD45" s="70"/>
+      <c r="AE45" s="70"/>
+      <c r="AF45" s="70"/>
+      <c r="AG45" s="70"/>
+      <c r="AH45" s="70"/>
+      <c r="AI45" s="70"/>
+      <c r="AJ45" s="70"/>
+      <c r="AK45" s="70"/>
+      <c r="AL45" s="70"/>
+      <c r="AM45" s="70"/>
+      <c r="AN45" s="70"/>
+      <c r="AO45" s="70"/>
+      <c r="AP45" s="70"/>
+      <c r="AQ45" s="70"/>
+      <c r="AR45" s="70"/>
+      <c r="AS45" s="70"/>
+      <c r="AT45" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AS45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" customWidth="1"/>
+    <col min="16" max="16" width="5" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="E4" s="126"/>
+      <c r="F4" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C5" s="160" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="162"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="159" t="s">
+        <v>294</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="157"/>
+      <c r="P6" s="157"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C8" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="159" t="s">
+        <v>294</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C11" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C12" s="163" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12" s="157"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="164"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C21" s="150"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="147"/>
+    </row>
+    <row r="22" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="151"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="149"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="30" spans="1:45" s="53" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="50"/>
+      <c r="B30" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30" s="52"/>
+      <c r="T30"/>
+      <c r="U30" s="52"/>
+    </row>
+    <row r="31" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
+      <c r="B31" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="55"/>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="55"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="55"/>
+      <c r="AO31" s="55"/>
+      <c r="AP31" s="55"/>
+      <c r="AQ31" s="55"/>
+      <c r="AR31" s="55"/>
+      <c r="AS31" s="57"/>
+    </row>
+    <row r="32" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
+      <c r="B32" s="58">
+        <v>1</v>
+      </c>
+      <c r="C32" s="91"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="81"/>
+      <c r="T32" s="81"/>
+      <c r="U32" s="81"/>
+      <c r="V32" s="81"/>
+      <c r="W32" s="81"/>
+      <c r="X32" s="81"/>
+      <c r="Y32" s="81"/>
+      <c r="Z32" s="81"/>
+      <c r="AA32" s="81"/>
+      <c r="AB32" s="81"/>
+      <c r="AC32" s="81"/>
+      <c r="AD32" s="81"/>
+      <c r="AE32" s="81"/>
+      <c r="AF32" s="81"/>
+      <c r="AG32" s="81"/>
+      <c r="AH32" s="81"/>
+      <c r="AI32" s="81"/>
+      <c r="AJ32" s="81"/>
+      <c r="AK32" s="81"/>
+      <c r="AL32" s="81"/>
+      <c r="AM32" s="81"/>
+      <c r="AN32" s="81"/>
+      <c r="AO32" s="81"/>
+      <c r="AP32" s="81"/>
+      <c r="AQ32" s="81"/>
+      <c r="AR32" s="81"/>
+      <c r="AS32" s="90"/>
+    </row>
+    <row r="33" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
+      <c r="B33" s="61">
+        <v>2</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="59"/>
+      <c r="AG33" s="59"/>
+      <c r="AH33" s="59"/>
+      <c r="AI33" s="59"/>
+      <c r="AJ33" s="59"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="59"/>
+      <c r="AM33" s="59"/>
+      <c r="AN33" s="59"/>
+      <c r="AO33" s="59"/>
+      <c r="AP33" s="59"/>
+      <c r="AQ33" s="59"/>
+      <c r="AR33" s="59"/>
+      <c r="AS33" s="60"/>
+    </row>
+    <row r="34" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="64"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="59"/>
+      <c r="AJ34" s="59"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="59"/>
+      <c r="AO34" s="59"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="59"/>
+      <c r="AR34" s="59"/>
+      <c r="AS34" s="60"/>
+    </row>
+    <row r="35" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="64"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="59"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="59"/>
+      <c r="AK35" s="59"/>
+      <c r="AL35" s="59"/>
+      <c r="AM35" s="59"/>
+      <c r="AN35" s="59"/>
+      <c r="AO35" s="59"/>
+      <c r="AP35" s="59"/>
+      <c r="AQ35" s="59"/>
+      <c r="AR35" s="59"/>
+      <c r="AS35" s="60"/>
+    </row>
+    <row r="36" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="64"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="59"/>
+      <c r="AF36" s="59"/>
+      <c r="AG36" s="59"/>
+      <c r="AH36" s="59"/>
+      <c r="AI36" s="59"/>
+      <c r="AJ36" s="59"/>
+      <c r="AK36" s="59"/>
+      <c r="AL36" s="59"/>
+      <c r="AM36" s="59"/>
+      <c r="AN36" s="59"/>
+      <c r="AO36" s="59"/>
+      <c r="AP36" s="59"/>
+      <c r="AQ36" s="59"/>
+      <c r="AR36" s="59"/>
+      <c r="AS36" s="60"/>
+    </row>
+    <row r="37" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="50"/>
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" s="65"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59"/>
+      <c r="AF37" s="59"/>
+      <c r="AG37" s="59"/>
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="59"/>
+      <c r="AK37" s="59"/>
+      <c r="AL37" s="59"/>
+      <c r="AM37" s="59"/>
+      <c r="AN37" s="59"/>
+      <c r="AO37" s="59"/>
+      <c r="AP37" s="59"/>
+      <c r="AQ37" s="59"/>
+      <c r="AR37" s="59"/>
+      <c r="AS37" s="60"/>
+    </row>
+    <row r="38" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
+      <c r="B38" s="67">
+        <v>6</v>
+      </c>
+      <c r="C38" s="65"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59"/>
+      <c r="AF38" s="59"/>
+      <c r="AG38" s="59"/>
+      <c r="AH38" s="59"/>
+      <c r="AI38" s="59"/>
+      <c r="AJ38" s="59"/>
+      <c r="AK38" s="59"/>
+      <c r="AL38" s="59"/>
+      <c r="AM38" s="59"/>
+      <c r="AN38" s="59"/>
+      <c r="AO38" s="59"/>
+      <c r="AP38" s="59"/>
+      <c r="AQ38" s="59"/>
+      <c r="AR38" s="59"/>
+      <c r="AS38" s="60"/>
+    </row>
+    <row r="39" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+      <c r="B39" s="1">
+        <v>7</v>
+      </c>
+      <c r="C39" s="65"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="59"/>
+      <c r="AF39" s="59"/>
+      <c r="AG39" s="59"/>
+      <c r="AH39" s="59"/>
+      <c r="AI39" s="59"/>
+      <c r="AJ39" s="59"/>
+      <c r="AK39" s="59"/>
+      <c r="AL39" s="59"/>
+      <c r="AM39" s="59"/>
+      <c r="AN39" s="59"/>
+      <c r="AO39" s="59"/>
+      <c r="AP39" s="59"/>
+      <c r="AQ39" s="59"/>
+      <c r="AR39" s="59"/>
+      <c r="AS39" s="60"/>
+    </row>
+    <row r="40" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="50"/>
+      <c r="B40" s="58">
+        <v>8</v>
+      </c>
+      <c r="C40" s="92"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59"/>
+      <c r="AF40" s="59"/>
+      <c r="AG40" s="59"/>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="59"/>
+      <c r="AM40" s="59"/>
+      <c r="AN40" s="59"/>
+      <c r="AO40" s="59"/>
+      <c r="AP40" s="59"/>
+      <c r="AQ40" s="59"/>
+      <c r="AR40" s="59"/>
+      <c r="AS40" s="60"/>
+    </row>
+    <row r="41" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="50"/>
+      <c r="B41" s="58">
+        <v>9</v>
+      </c>
+      <c r="C41" s="92"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="59"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="59"/>
+      <c r="Y41" s="59"/>
+      <c r="Z41" s="59"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="59"/>
+      <c r="AF41" s="59"/>
+      <c r="AG41" s="59"/>
+      <c r="AH41" s="59"/>
+      <c r="AI41" s="59"/>
+      <c r="AJ41" s="59"/>
+      <c r="AK41" s="59"/>
+      <c r="AL41" s="59"/>
+      <c r="AM41" s="59"/>
+      <c r="AN41" s="59"/>
+      <c r="AO41" s="59"/>
+      <c r="AP41" s="59"/>
+      <c r="AQ41" s="59"/>
+      <c r="AR41" s="59"/>
+      <c r="AS41" s="60"/>
+    </row>
+    <row r="42" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="50"/>
+      <c r="B42" s="58">
+        <v>10</v>
+      </c>
+      <c r="C42" s="92"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="59"/>
+      <c r="Z42" s="59"/>
+      <c r="AA42" s="59"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="59"/>
+      <c r="AD42" s="59"/>
+      <c r="AE42" s="59"/>
+      <c r="AF42" s="59"/>
+      <c r="AG42" s="59"/>
+      <c r="AH42" s="59"/>
+      <c r="AI42" s="59"/>
+      <c r="AJ42" s="59"/>
+      <c r="AK42" s="59"/>
+      <c r="AL42" s="59"/>
+      <c r="AM42" s="59"/>
+      <c r="AN42" s="59"/>
+      <c r="AO42" s="59"/>
+      <c r="AP42" s="59"/>
+      <c r="AQ42" s="59"/>
+      <c r="AR42" s="59"/>
+      <c r="AS42" s="60"/>
+    </row>
+    <row r="43" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="50"/>
+      <c r="B43" s="58">
+        <v>11</v>
+      </c>
+      <c r="C43" s="92"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="59"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="59"/>
+      <c r="V43" s="59"/>
+      <c r="W43" s="59"/>
+      <c r="X43" s="59"/>
+      <c r="Y43" s="59"/>
+      <c r="Z43" s="59"/>
+      <c r="AA43" s="59"/>
+      <c r="AB43" s="59"/>
+      <c r="AC43" s="59"/>
+      <c r="AD43" s="59"/>
+      <c r="AE43" s="59"/>
+      <c r="AF43" s="59"/>
+      <c r="AG43" s="59"/>
+      <c r="AH43" s="59"/>
+      <c r="AI43" s="59"/>
+      <c r="AJ43" s="59"/>
+      <c r="AK43" s="59"/>
+      <c r="AL43" s="59"/>
+      <c r="AM43" s="59"/>
+      <c r="AN43" s="59"/>
+      <c r="AO43" s="59"/>
+      <c r="AP43" s="59"/>
+      <c r="AQ43" s="59"/>
+      <c r="AR43" s="59"/>
+      <c r="AS43" s="60"/>
+    </row>
+    <row r="44" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="50"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="59"/>
+      <c r="V44" s="59"/>
+      <c r="W44" s="59"/>
+      <c r="X44" s="59"/>
+      <c r="Y44" s="59"/>
+      <c r="Z44" s="59"/>
+      <c r="AA44" s="59"/>
+      <c r="AB44" s="59"/>
+      <c r="AC44" s="59"/>
+      <c r="AD44" s="59"/>
+      <c r="AE44" s="59"/>
+      <c r="AF44" s="59"/>
+      <c r="AG44" s="59"/>
+      <c r="AH44" s="59"/>
+      <c r="AI44" s="59"/>
+      <c r="AJ44" s="59"/>
+      <c r="AK44" s="59"/>
+      <c r="AL44" s="59"/>
+      <c r="AM44" s="59"/>
+      <c r="AN44" s="59"/>
+      <c r="AO44" s="59"/>
+      <c r="AP44" s="59"/>
+      <c r="AQ44" s="59"/>
+      <c r="AR44" s="59"/>
+      <c r="AS44" s="60"/>
+    </row>
+    <row r="45" spans="1:45" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="50"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="69"/>
+      <c r="R45" s="69"/>
+      <c r="S45" s="70"/>
+      <c r="T45" s="70"/>
+      <c r="U45" s="70"/>
+      <c r="V45" s="70"/>
+      <c r="W45" s="70"/>
+      <c r="X45" s="70"/>
+      <c r="Y45" s="70"/>
+      <c r="Z45" s="70"/>
+      <c r="AA45" s="70"/>
+      <c r="AB45" s="70"/>
+      <c r="AC45" s="70"/>
+      <c r="AD45" s="70"/>
+      <c r="AE45" s="70"/>
+      <c r="AF45" s="70"/>
+      <c r="AG45" s="70"/>
+      <c r="AH45" s="70"/>
+      <c r="AI45" s="70"/>
+      <c r="AJ45" s="70"/>
+      <c r="AK45" s="70"/>
+      <c r="AL45" s="70"/>
+      <c r="AM45" s="70"/>
+      <c r="AN45" s="70"/>
+      <c r="AO45" s="70"/>
+      <c r="AP45" s="70"/>
+      <c r="AQ45" s="70"/>
+      <c r="AR45" s="70"/>
+      <c r="AS45" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AS45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" customWidth="1"/>
+    <col min="16" max="16" width="5" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="126" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="126"/>
+      <c r="F4" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C5" s="182" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="183"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F6" s="184"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="157"/>
+      <c r="P6" s="157"/>
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C8" s="66"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="159"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C11" s="66"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C12" s="163"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="164"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C21" s="150"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="147"/>
+    </row>
+    <row r="22" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="151"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="149"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="30" spans="1:45" s="53" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="50"/>
+      <c r="B30" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30" s="52"/>
+      <c r="T30"/>
+      <c r="U30" s="52"/>
+    </row>
+    <row r="31" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
+      <c r="B31" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="55"/>
+      <c r="AD31" s="55"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="55"/>
+      <c r="AH31" s="55"/>
+      <c r="AI31" s="55"/>
+      <c r="AJ31" s="55"/>
+      <c r="AK31" s="55"/>
+      <c r="AL31" s="55"/>
+      <c r="AM31" s="55"/>
+      <c r="AN31" s="55"/>
+      <c r="AO31" s="55"/>
+      <c r="AP31" s="55"/>
+      <c r="AQ31" s="55"/>
+      <c r="AR31" s="55"/>
+      <c r="AS31" s="57"/>
+    </row>
+    <row r="32" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
+      <c r="B32" s="58">
+        <v>1</v>
+      </c>
+      <c r="C32" s="91" t="s">
+        <v>310</v>
+      </c>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="81"/>
+      <c r="T32" s="81"/>
+      <c r="U32" s="81"/>
+      <c r="V32" s="81"/>
+      <c r="W32" s="81"/>
+      <c r="X32" s="81"/>
+      <c r="Y32" s="81"/>
+      <c r="Z32" s="81"/>
+      <c r="AA32" s="81"/>
+      <c r="AB32" s="81"/>
+      <c r="AC32" s="81"/>
+      <c r="AD32" s="81"/>
+      <c r="AE32" s="81"/>
+      <c r="AF32" s="81"/>
+      <c r="AG32" s="81"/>
+      <c r="AH32" s="81"/>
+      <c r="AI32" s="81"/>
+      <c r="AJ32" s="81"/>
+      <c r="AK32" s="81"/>
+      <c r="AL32" s="81"/>
+      <c r="AM32" s="81"/>
+      <c r="AN32" s="81"/>
+      <c r="AO32" s="81"/>
+      <c r="AP32" s="81"/>
+      <c r="AQ32" s="81"/>
+      <c r="AR32" s="81"/>
+      <c r="AS32" s="90"/>
+    </row>
+    <row r="33" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
+      <c r="B33" s="61">
+        <v>2</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="59"/>
+      <c r="AG33" s="59"/>
+      <c r="AH33" s="59"/>
+      <c r="AI33" s="59"/>
+      <c r="AJ33" s="59"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="59"/>
+      <c r="AM33" s="59"/>
+      <c r="AN33" s="59"/>
+      <c r="AO33" s="59"/>
+      <c r="AP33" s="59"/>
+      <c r="AQ33" s="59"/>
+      <c r="AR33" s="59"/>
+      <c r="AS33" s="60"/>
+    </row>
+    <row r="34" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="64"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="59"/>
+      <c r="AJ34" s="59"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="59"/>
+      <c r="AO34" s="59"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="59"/>
+      <c r="AR34" s="59"/>
+      <c r="AS34" s="60"/>
+    </row>
+    <row r="35" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="64"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="59"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="59"/>
+      <c r="AK35" s="59"/>
+      <c r="AL35" s="59"/>
+      <c r="AM35" s="59"/>
+      <c r="AN35" s="59"/>
+      <c r="AO35" s="59"/>
+      <c r="AP35" s="59"/>
+      <c r="AQ35" s="59"/>
+      <c r="AR35" s="59"/>
+      <c r="AS35" s="60"/>
+    </row>
+    <row r="36" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="64"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="59"/>
+      <c r="AF36" s="59"/>
+      <c r="AG36" s="59"/>
+      <c r="AH36" s="59"/>
+      <c r="AI36" s="59"/>
+      <c r="AJ36" s="59"/>
+      <c r="AK36" s="59"/>
+      <c r="AL36" s="59"/>
+      <c r="AM36" s="59"/>
+      <c r="AN36" s="59"/>
+      <c r="AO36" s="59"/>
+      <c r="AP36" s="59"/>
+      <c r="AQ36" s="59"/>
+      <c r="AR36" s="59"/>
+      <c r="AS36" s="60"/>
+    </row>
+    <row r="37" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="50"/>
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" s="65"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59"/>
+      <c r="AF37" s="59"/>
+      <c r="AG37" s="59"/>
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="59"/>
+      <c r="AK37" s="59"/>
+      <c r="AL37" s="59"/>
+      <c r="AM37" s="59"/>
+      <c r="AN37" s="59"/>
+      <c r="AO37" s="59"/>
+      <c r="AP37" s="59"/>
+      <c r="AQ37" s="59"/>
+      <c r="AR37" s="59"/>
+      <c r="AS37" s="60"/>
+    </row>
+    <row r="38" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
+      <c r="B38" s="67">
+        <v>6</v>
+      </c>
+      <c r="C38" s="65"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59"/>
+      <c r="AF38" s="59"/>
+      <c r="AG38" s="59"/>
+      <c r="AH38" s="59"/>
+      <c r="AI38" s="59"/>
+      <c r="AJ38" s="59"/>
+      <c r="AK38" s="59"/>
+      <c r="AL38" s="59"/>
+      <c r="AM38" s="59"/>
+      <c r="AN38" s="59"/>
+      <c r="AO38" s="59"/>
+      <c r="AP38" s="59"/>
+      <c r="AQ38" s="59"/>
+      <c r="AR38" s="59"/>
+      <c r="AS38" s="60"/>
+    </row>
+    <row r="39" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+      <c r="B39" s="1">
+        <v>7</v>
+      </c>
+      <c r="C39" s="65"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="59"/>
+      <c r="AF39" s="59"/>
+      <c r="AG39" s="59"/>
+      <c r="AH39" s="59"/>
+      <c r="AI39" s="59"/>
+      <c r="AJ39" s="59"/>
+      <c r="AK39" s="59"/>
+      <c r="AL39" s="59"/>
+      <c r="AM39" s="59"/>
+      <c r="AN39" s="59"/>
+      <c r="AO39" s="59"/>
+      <c r="AP39" s="59"/>
+      <c r="AQ39" s="59"/>
+      <c r="AR39" s="59"/>
+      <c r="AS39" s="60"/>
+    </row>
+    <row r="40" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="50"/>
+      <c r="B40" s="58">
+        <v>8</v>
+      </c>
+      <c r="C40" s="92"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59"/>
+      <c r="AF40" s="59"/>
+      <c r="AG40" s="59"/>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="59"/>
+      <c r="AM40" s="59"/>
+      <c r="AN40" s="59"/>
+      <c r="AO40" s="59"/>
+      <c r="AP40" s="59"/>
+      <c r="AQ40" s="59"/>
+      <c r="AR40" s="59"/>
+      <c r="AS40" s="60"/>
+    </row>
+    <row r="41" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="50"/>
+      <c r="B41" s="58">
+        <v>9</v>
+      </c>
+      <c r="C41" s="92"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="59"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="59"/>
+      <c r="Y41" s="59"/>
+      <c r="Z41" s="59"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="59"/>
+      <c r="AF41" s="59"/>
+      <c r="AG41" s="59"/>
+      <c r="AH41" s="59"/>
+      <c r="AI41" s="59"/>
+      <c r="AJ41" s="59"/>
+      <c r="AK41" s="59"/>
+      <c r="AL41" s="59"/>
+      <c r="AM41" s="59"/>
+      <c r="AN41" s="59"/>
+      <c r="AO41" s="59"/>
+      <c r="AP41" s="59"/>
+      <c r="AQ41" s="59"/>
+      <c r="AR41" s="59"/>
+      <c r="AS41" s="60"/>
+    </row>
+    <row r="42" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="50"/>
+      <c r="B42" s="58">
+        <v>10</v>
+      </c>
+      <c r="C42" s="92"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="59"/>
+      <c r="Z42" s="59"/>
+      <c r="AA42" s="59"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="59"/>
+      <c r="AD42" s="59"/>
+      <c r="AE42" s="59"/>
+      <c r="AF42" s="59"/>
+      <c r="AG42" s="59"/>
+      <c r="AH42" s="59"/>
+      <c r="AI42" s="59"/>
+      <c r="AJ42" s="59"/>
+      <c r="AK42" s="59"/>
+      <c r="AL42" s="59"/>
+      <c r="AM42" s="59"/>
+      <c r="AN42" s="59"/>
+      <c r="AO42" s="59"/>
+      <c r="AP42" s="59"/>
+      <c r="AQ42" s="59"/>
+      <c r="AR42" s="59"/>
+      <c r="AS42" s="60"/>
+    </row>
+    <row r="43" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="50"/>
+      <c r="B43" s="58">
+        <v>11</v>
+      </c>
+      <c r="C43" s="92"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="59"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="59"/>
+      <c r="V43" s="59"/>
+      <c r="W43" s="59"/>
+      <c r="X43" s="59"/>
+      <c r="Y43" s="59"/>
+      <c r="Z43" s="59"/>
+      <c r="AA43" s="59"/>
+      <c r="AB43" s="59"/>
+      <c r="AC43" s="59"/>
+      <c r="AD43" s="59"/>
+      <c r="AE43" s="59"/>
+      <c r="AF43" s="59"/>
+      <c r="AG43" s="59"/>
+      <c r="AH43" s="59"/>
+      <c r="AI43" s="59"/>
+      <c r="AJ43" s="59"/>
+      <c r="AK43" s="59"/>
+      <c r="AL43" s="59"/>
+      <c r="AM43" s="59"/>
+      <c r="AN43" s="59"/>
+      <c r="AO43" s="59"/>
+      <c r="AP43" s="59"/>
+      <c r="AQ43" s="59"/>
+      <c r="AR43" s="59"/>
+      <c r="AS43" s="60"/>
+    </row>
+    <row r="44" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="50"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="59"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="59"/>
+      <c r="V44" s="59"/>
+      <c r="W44" s="59"/>
+      <c r="X44" s="59"/>
+      <c r="Y44" s="59"/>
+      <c r="Z44" s="59"/>
+      <c r="AA44" s="59"/>
+      <c r="AB44" s="59"/>
+      <c r="AC44" s="59"/>
+      <c r="AD44" s="59"/>
+      <c r="AE44" s="59"/>
+      <c r="AF44" s="59"/>
+      <c r="AG44" s="59"/>
+      <c r="AH44" s="59"/>
+      <c r="AI44" s="59"/>
+      <c r="AJ44" s="59"/>
+      <c r="AK44" s="59"/>
+      <c r="AL44" s="59"/>
+      <c r="AM44" s="59"/>
+      <c r="AN44" s="59"/>
+      <c r="AO44" s="59"/>
+      <c r="AP44" s="59"/>
+      <c r="AQ44" s="59"/>
+      <c r="AR44" s="59"/>
+      <c r="AS44" s="60"/>
+    </row>
+    <row r="45" spans="1:45" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="50"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="69"/>
+      <c r="M45" s="69"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="69"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="69"/>
+      <c r="R45" s="69"/>
+      <c r="S45" s="70"/>
+      <c r="T45" s="70"/>
+      <c r="U45" s="70"/>
+      <c r="V45" s="70"/>
+      <c r="W45" s="70"/>
+      <c r="X45" s="70"/>
+      <c r="Y45" s="70"/>
+      <c r="Z45" s="70"/>
+      <c r="AA45" s="70"/>
+      <c r="AB45" s="70"/>
+      <c r="AC45" s="70"/>
+      <c r="AD45" s="70"/>
+      <c r="AE45" s="70"/>
+      <c r="AF45" s="70"/>
+      <c r="AG45" s="70"/>
+      <c r="AH45" s="70"/>
+      <c r="AI45" s="70"/>
+      <c r="AJ45" s="70"/>
+      <c r="AK45" s="70"/>
+      <c r="AL45" s="70"/>
+      <c r="AM45" s="70"/>
+      <c r="AN45" s="70"/>
+      <c r="AO45" s="70"/>
+      <c r="AP45" s="70"/>
+      <c r="AQ45" s="70"/>
+      <c r="AR45" s="70"/>
+      <c r="AS45" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="C12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7542,196 +12597,196 @@
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
       <c r="K4" s="43"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
       <c r="K5" s="43"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
       <c r="K6" s="43"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="42"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
       <c r="K7" s="43"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="42"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
       <c r="K8" s="43"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="42"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
       <c r="K9" s="43"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="42"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
       <c r="K10" s="43"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="42"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
       <c r="K11" s="44"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="42"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
       <c r="K12" s="45"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
       <c r="K13" s="44"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
       <c r="K14" s="45"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="114"/>
       <c r="K15" s="45"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="42"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
       <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B17" s="42"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
       <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="114"/>
       <c r="K18" s="45"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B19" s="42"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
       <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
@@ -8460,15 +13515,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="117"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -8984,40 +14039,40 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
       <c r="K4" s="43"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
       <c r="K5" s="43"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
       <c r="K6" s="43"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -9063,11 +14118,11 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="119"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="122"/>
       <c r="K10" s="44"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9089,11 +14144,11 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="122"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="125"/>
       <c r="K12" s="44"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -9905,15 +14960,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="117"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -10393,10 +15448,10 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="123"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="37" t="s">
         <v>18</v>
       </c>
@@ -10404,20 +15459,20 @@
       <c r="J4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="123" t="s">
+      <c r="K4" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="123"/>
+      <c r="L4" s="126"/>
       <c r="M4" s="37" t="s">
         <v>18</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="123" t="s">
+      <c r="Q4" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="123"/>
+      <c r="R4" s="126"/>
       <c r="S4" s="37" t="s">
         <v>18</v>
       </c>
@@ -10660,7 +15715,7 @@
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="127" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="107" t="s">
@@ -10668,7 +15723,7 @@
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="34"/>
-      <c r="J20" s="124" t="s">
+      <c r="J20" s="127" t="s">
         <v>44</v>
       </c>
       <c r="K20" s="107" t="s">
@@ -10676,7 +15731,7 @@
       </c>
       <c r="L20" s="33"/>
       <c r="M20" s="34"/>
-      <c r="P20" s="124" t="s">
+      <c r="P20" s="127" t="s">
         <v>44</v>
       </c>
       <c r="Q20" s="33" t="s">
@@ -10686,7 +15741,7 @@
       <c r="S20" s="34"/>
     </row>
     <row r="21" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="125"/>
+      <c r="C21" s="128"/>
       <c r="D21" s="35" t="s">
         <v>45</v>
       </c>
@@ -10694,7 +15749,7 @@
       <c r="F21" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="J21" s="125"/>
+      <c r="J21" s="128"/>
       <c r="K21" s="35" t="s">
         <v>234</v>
       </c>
@@ -10702,7 +15757,7 @@
       <c r="M21" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="P21" s="125"/>
+      <c r="P21" s="128"/>
       <c r="Q21" s="35" t="s">
         <v>236</v>
       </c>
@@ -11542,7 +16597,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11560,15 +16615,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="117"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -12121,7 +17176,7 @@
   <dimension ref="A3:AS44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="C4" sqref="C4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12146,10 +17201,10 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="123"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="37" t="s">
         <v>18</v>
       </c>
@@ -12171,14 +17226,14 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
       <c r="L6" s="96"/>
-      <c r="M6" s="126" t="s">
+      <c r="M6" s="129" t="s">
         <v>278</v>
       </c>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
       <c r="S6" s="97"/>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.25">
@@ -12375,7 +17430,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="127" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -12385,7 +17440,7 @@
       <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="125"/>
+      <c r="C21" s="128"/>
       <c r="D21" s="35" t="s">
         <v>45</v>
       </c>
@@ -13203,15 +18258,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="117"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
